--- a/Data_frame/balancos_definitivos/SJOS4.xlsx
+++ b/Data_frame/balancos_definitivos/SJOS4.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>31/03/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74948</v>
+        <v>41412</v>
       </c>
       <c r="C2" t="n">
-        <v>79567</v>
+        <v>37193</v>
       </c>
       <c r="D2" t="n">
-        <v>42233</v>
+        <v>36256</v>
       </c>
       <c r="E2" t="n">
-        <v>41412</v>
+        <v>35344</v>
       </c>
       <c r="F2" t="n">
-        <v>37193</v>
+        <v>35255</v>
       </c>
       <c r="G2" t="n">
-        <v>36256</v>
+        <v>33794</v>
       </c>
       <c r="H2" t="n">
-        <v>35344</v>
+        <v>32301</v>
       </c>
       <c r="I2" t="n">
-        <v>35255</v>
+        <v>30844</v>
       </c>
       <c r="J2" t="n">
-        <v>33794</v>
+        <v>29837</v>
       </c>
       <c r="K2" t="n">
-        <v>32301</v>
+        <v>28745</v>
       </c>
       <c r="L2" t="n">
-        <v>30844</v>
+        <v>23376</v>
       </c>
       <c r="M2" t="n">
-        <v>29837</v>
+        <v>21191</v>
       </c>
       <c r="N2" t="n">
-        <v>28745</v>
+        <v>20367</v>
       </c>
       <c r="O2" t="n">
-        <v>23376</v>
+        <v>19820</v>
       </c>
       <c r="P2" t="n">
-        <v>21191</v>
+        <v>19208</v>
       </c>
       <c r="Q2" t="n">
-        <v>20367</v>
+        <v>19118</v>
       </c>
       <c r="R2" t="n">
-        <v>19820</v>
+        <v>18251</v>
       </c>
       <c r="S2" t="n">
-        <v>19208</v>
+        <v>17460</v>
       </c>
       <c r="T2" t="n">
-        <v>19118</v>
+        <v>16732</v>
       </c>
       <c r="U2" t="n">
-        <v>18251</v>
+        <v>7881</v>
       </c>
       <c r="V2" t="n">
-        <v>17460</v>
+        <v>7380</v>
       </c>
       <c r="W2" t="n">
-        <v>16732</v>
+        <v>6610</v>
       </c>
       <c r="X2" t="n">
-        <v>7881</v>
+        <v>6458</v>
       </c>
       <c r="Y2" t="n">
-        <v>7380</v>
+        <v>6349</v>
       </c>
       <c r="Z2" t="n">
-        <v>6610</v>
+        <v>6180</v>
       </c>
       <c r="AA2" t="n">
-        <v>6458</v>
+        <v>6033</v>
       </c>
       <c r="AB2" t="n">
-        <v>6349</v>
+        <v>5966</v>
       </c>
       <c r="AC2" t="n">
-        <v>6180</v>
+        <v>5790</v>
       </c>
       <c r="AD2" t="n">
-        <v>6033</v>
+        <v>5693</v>
       </c>
       <c r="AE2" t="n">
-        <v>5966</v>
+        <v>5592</v>
       </c>
       <c r="AF2" t="n">
-        <v>5790</v>
+        <v>5470</v>
       </c>
       <c r="AG2" t="n">
-        <v>5693</v>
+        <v>4717</v>
       </c>
       <c r="AH2" t="n">
-        <v>5592</v>
+        <v>4784</v>
       </c>
       <c r="AI2" t="n">
-        <v>5470</v>
+        <v>4640</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4717</v>
+        <v>4612</v>
       </c>
       <c r="AK2" t="n">
-        <v>4784</v>
+        <v>4516</v>
       </c>
       <c r="AL2" t="n">
-        <v>4640</v>
+        <v>4552</v>
       </c>
       <c r="AM2" t="n">
-        <v>4612</v>
+        <v>4560</v>
       </c>
       <c r="AN2" t="n">
-        <v>4516</v>
+        <v>4573</v>
       </c>
       <c r="AO2" t="n">
-        <v>4552</v>
+        <v>4654</v>
       </c>
       <c r="AP2" t="n">
-        <v>4560</v>
+        <v>4811</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4573</v>
+        <v>4831</v>
       </c>
       <c r="AR2" t="n">
-        <v>4654</v>
+        <v>4959</v>
       </c>
       <c r="AS2" t="n">
-        <v>4811</v>
+        <v>5023</v>
       </c>
       <c r="AT2" t="n">
-        <v>4831</v>
+        <v>5087</v>
       </c>
       <c r="AU2" t="n">
-        <v>4959</v>
+        <v>5205</v>
       </c>
       <c r="AV2" t="n">
-        <v>5023</v>
+        <v>3921</v>
       </c>
       <c r="AW2" t="n">
-        <v>5087</v>
+        <v>3956</v>
       </c>
       <c r="AX2" t="n">
-        <v>5205</v>
+        <v>3965</v>
       </c>
       <c r="AY2" t="n">
-        <v>3921</v>
+        <v>3995</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3956</v>
+        <v>4096</v>
       </c>
       <c r="BA2" t="n">
-        <v>3965</v>
+        <v>4126</v>
       </c>
       <c r="BB2" t="n">
-        <v>3995</v>
+        <v>4200</v>
       </c>
       <c r="BC2" t="n">
-        <v>4096</v>
+        <v>4427</v>
       </c>
       <c r="BD2" t="n">
-        <v>4126</v>
+        <v>4635</v>
       </c>
       <c r="BE2" t="n">
-        <v>4200</v>
+        <v>4796</v>
       </c>
       <c r="BF2" t="n">
-        <v>4427</v>
+        <v>4461</v>
       </c>
       <c r="BG2" t="n">
-        <v>4635</v>
+        <v>4155</v>
       </c>
       <c r="BH2" t="n">
-        <v>4796</v>
+        <v>3537</v>
       </c>
       <c r="BI2" t="n">
-        <v>4461</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="3">
@@ -934,184 +934,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43979</v>
+        <v>11731</v>
       </c>
       <c r="C3" t="n">
-        <v>49602</v>
+        <v>7829</v>
       </c>
       <c r="D3" t="n">
-        <v>12809</v>
+        <v>7287</v>
       </c>
       <c r="E3" t="n">
-        <v>11731</v>
+        <v>6860</v>
       </c>
       <c r="F3" t="n">
-        <v>7829</v>
+        <v>8460</v>
       </c>
       <c r="G3" t="n">
-        <v>7287</v>
+        <v>6997</v>
       </c>
       <c r="H3" t="n">
-        <v>6860</v>
+        <v>6892</v>
       </c>
       <c r="I3" t="n">
-        <v>8460</v>
+        <v>10704</v>
       </c>
       <c r="J3" t="n">
-        <v>6997</v>
+        <v>10702</v>
       </c>
       <c r="K3" t="n">
-        <v>6892</v>
+        <v>10645</v>
       </c>
       <c r="L3" t="n">
-        <v>10704</v>
+        <v>6184</v>
       </c>
       <c r="M3" t="n">
-        <v>10702</v>
+        <v>3526</v>
       </c>
       <c r="N3" t="n">
-        <v>10645</v>
+        <v>3530</v>
       </c>
       <c r="O3" t="n">
-        <v>6184</v>
+        <v>3485</v>
       </c>
       <c r="P3" t="n">
-        <v>3526</v>
+        <v>3501</v>
       </c>
       <c r="Q3" t="n">
-        <v>3530</v>
+        <v>4106</v>
       </c>
       <c r="R3" t="n">
-        <v>3485</v>
+        <v>3204</v>
       </c>
       <c r="S3" t="n">
-        <v>3501</v>
+        <v>3453</v>
       </c>
       <c r="T3" t="n">
-        <v>4106</v>
+        <v>3156</v>
       </c>
       <c r="U3" t="n">
-        <v>3204</v>
+        <v>3153</v>
       </c>
       <c r="V3" t="n">
-        <v>3453</v>
+        <v>3158</v>
       </c>
       <c r="W3" t="n">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="X3" t="n">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="Y3" t="n">
-        <v>3158</v>
+        <v>3152</v>
       </c>
       <c r="Z3" t="n">
         <v>3152</v>
       </c>
       <c r="AA3" t="n">
+        <v>3151</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3156</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3156</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3150</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3169</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3154</v>
+      </c>
+      <c r="AG3" t="n">
         <v>3152</v>
       </c>
-      <c r="AB3" t="n">
-        <v>3152</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3152</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3151</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3156</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3156</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3150</v>
-      </c>
       <c r="AH3" t="n">
-        <v>3169</v>
+        <v>3155</v>
       </c>
       <c r="AI3" t="n">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="AK3" t="n">
+        <v>3146</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3149</v>
+      </c>
+      <c r="AM3" t="n">
         <v>3155</v>
       </c>
-      <c r="AL3" t="n">
-        <v>3144</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>3147</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3146</v>
+        <v>3159</v>
       </c>
       <c r="AO3" t="n">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="AP3" t="n">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3159</v>
+        <v>3107</v>
       </c>
       <c r="AR3" t="n">
-        <v>3153</v>
+        <v>3108</v>
       </c>
       <c r="AS3" t="n">
-        <v>3158</v>
+        <v>3107</v>
       </c>
       <c r="AT3" t="n">
         <v>3107</v>
       </c>
       <c r="AU3" t="n">
-        <v>3108</v>
+        <v>3114</v>
       </c>
       <c r="AV3" t="n">
-        <v>3107</v>
+        <v>2284</v>
       </c>
       <c r="AW3" t="n">
-        <v>3107</v>
+        <v>2288</v>
       </c>
       <c r="AX3" t="n">
-        <v>3114</v>
+        <v>2294</v>
       </c>
       <c r="AY3" t="n">
-        <v>2284</v>
+        <v>2304</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2288</v>
+        <v>2307</v>
       </c>
       <c r="BA3" t="n">
-        <v>2294</v>
+        <v>2320</v>
       </c>
       <c r="BB3" t="n">
-        <v>2304</v>
+        <v>2319</v>
       </c>
       <c r="BC3" t="n">
-        <v>2307</v>
+        <v>2320</v>
       </c>
       <c r="BD3" t="n">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="BE3" t="n">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="BF3" t="n">
-        <v>2320</v>
+        <v>2766</v>
       </c>
       <c r="BG3" t="n">
-        <v>2321</v>
+        <v>3153</v>
       </c>
       <c r="BH3" t="n">
-        <v>2317</v>
+        <v>3157</v>
       </c>
       <c r="BI3" t="n">
-        <v>2766</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="4">
@@ -1121,76 +1121,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
         <v>30</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29</v>
       </c>
       <c r="L4" t="n">
         <v>29</v>
       </c>
       <c r="M4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O4" t="n">
+        <v>32</v>
+      </c>
+      <c r="P4" t="n">
         <v>29</v>
       </c>
-      <c r="P4" t="n">
-        <v>43</v>
-      </c>
       <c r="Q4" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S4" t="n">
         <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U4" t="n">
         <v>29</v>
       </c>
       <c r="V4" t="n">
+        <v>34</v>
+      </c>
+      <c r="W4" t="n">
         <v>29</v>
-      </c>
-      <c r="W4" t="n">
-        <v>30</v>
       </c>
       <c r="X4" t="n">
         <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -1208,76 +1208,76 @@
         <v>29</v>
       </c>
       <c r="AE4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI4" t="n">
         <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>33</v>
       </c>
       <c r="AJ4" t="n">
         <v>31</v>
       </c>
       <c r="AK4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AM4" t="n">
         <v>31</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV4" t="n">
         <v>29</v>
       </c>
-      <c r="AV4" t="n">
-        <v>28</v>
-      </c>
       <c r="AW4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC4" t="n">
         <v>30</v>
@@ -1286,19 +1286,19 @@
         <v>30</v>
       </c>
       <c r="BE4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BF4" t="n">
-        <v>30</v>
+        <v>474</v>
       </c>
       <c r="BG4" t="n">
-        <v>30</v>
+        <v>864</v>
       </c>
       <c r="BH4" t="n">
-        <v>28</v>
+        <v>864</v>
       </c>
       <c r="BI4" t="n">
-        <v>474</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5">
@@ -1495,61 +1495,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9200</v>
+        <v>6166</v>
       </c>
       <c r="C6" t="n">
-        <v>8138</v>
+        <v>6005</v>
       </c>
       <c r="D6" t="n">
-        <v>6721</v>
+        <v>5589</v>
       </c>
       <c r="E6" t="n">
-        <v>6166</v>
+        <v>5350</v>
       </c>
       <c r="F6" t="n">
-        <v>6005</v>
+        <v>6953</v>
       </c>
       <c r="G6" t="n">
-        <v>5589</v>
+        <v>5452</v>
       </c>
       <c r="H6" t="n">
-        <v>5350</v>
+        <v>5418</v>
       </c>
       <c r="I6" t="n">
-        <v>6953</v>
+        <v>2181</v>
       </c>
       <c r="J6" t="n">
-        <v>5452</v>
+        <v>2180</v>
       </c>
       <c r="K6" t="n">
-        <v>5418</v>
+        <v>2201</v>
       </c>
       <c r="L6" t="n">
-        <v>2181</v>
+        <v>2206</v>
       </c>
       <c r="M6" t="n">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="N6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P6" t="n">
         <v>2201</v>
       </c>
-      <c r="O6" t="n">
-        <v>2206</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2200</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2200</v>
+        <v>2785</v>
       </c>
       <c r="R6" t="n">
-        <v>2200</v>
+        <v>1895</v>
       </c>
       <c r="S6" t="n">
-        <v>2201</v>
+        <v>1895</v>
       </c>
       <c r="T6" t="n">
-        <v>2785</v>
+        <v>1895</v>
       </c>
       <c r="U6" t="n">
         <v>1895</v>
@@ -1561,7 +1561,7 @@
         <v>1895</v>
       </c>
       <c r="X6" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Y6" t="n">
         <v>1895</v>
@@ -1570,7 +1570,7 @@
         <v>1895</v>
       </c>
       <c r="AA6" t="n">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="AB6" t="n">
         <v>1895</v>
@@ -1582,7 +1582,7 @@
         <v>1895</v>
       </c>
       <c r="AE6" t="n">
-        <v>1895</v>
+        <v>1912</v>
       </c>
       <c r="AF6" t="n">
         <v>1895</v>
@@ -1591,7 +1591,7 @@
         <v>1895</v>
       </c>
       <c r="AH6" t="n">
-        <v>1912</v>
+        <v>1895</v>
       </c>
       <c r="AI6" t="n">
         <v>1895</v>
@@ -1618,13 +1618,13 @@
         <v>1895</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1895</v>
+        <v>1843</v>
       </c>
       <c r="AR6" t="n">
-        <v>1895</v>
+        <v>1843</v>
       </c>
       <c r="AS6" t="n">
-        <v>1895</v>
+        <v>1843</v>
       </c>
       <c r="AT6" t="n">
         <v>1843</v>
@@ -1636,43 +1636,43 @@
         <v>1843</v>
       </c>
       <c r="AW6" t="n">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="AX6" t="n">
-        <v>1843</v>
+        <v>1852</v>
       </c>
       <c r="AY6" t="n">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="BA6" t="n">
         <v>1852</v>
       </c>
       <c r="BB6" t="n">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="BC6" t="n">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="BD6" t="n">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="BE6" t="n">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="BF6" t="n">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="BG6" t="n">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="BH6" t="n">
+        <v>1855</v>
+      </c>
+      <c r="BI6" t="n">
         <v>1851</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1854</v>
       </c>
     </row>
     <row r="7">
@@ -1682,34 +1682,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3233</v>
+        <v>4263</v>
       </c>
       <c r="C7" t="n">
-        <v>3562</v>
+        <v>491</v>
       </c>
       <c r="D7" t="n">
-        <v>4094</v>
+        <v>428</v>
       </c>
       <c r="E7" t="n">
-        <v>4263</v>
+        <v>152</v>
       </c>
       <c r="F7" t="n">
-        <v>491</v>
+        <v>152</v>
       </c>
       <c r="G7" t="n">
-        <v>428</v>
+        <v>152</v>
       </c>
       <c r="H7" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I7" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2077,34 +2077,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="L9" t="n">
-        <v>1126</v>
+        <v>1032</v>
       </c>
       <c r="M9" t="n">
-        <v>1126</v>
+        <v>894</v>
       </c>
       <c r="N9" t="n">
-        <v>1042</v>
+        <v>893</v>
       </c>
       <c r="O9" t="n">
-        <v>1032</v>
+        <v>886</v>
       </c>
       <c r="P9" t="n">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="Q9" t="n">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="R9" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="S9" t="n">
         <v>885</v>
@@ -2119,40 +2119,40 @@
         <v>885</v>
       </c>
       <c r="W9" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="X9" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Y9" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Z9" t="n">
         <v>884</v>
       </c>
       <c r="AA9" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AB9" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AC9" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AD9" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AE9" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF9" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AG9" t="n">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AH9" t="n">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AI9" t="n">
         <v>881</v>
@@ -2176,16 +2176,16 @@
         <v>881</v>
       </c>
       <c r="AP9" t="n">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="AQ9" t="n">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="AR9" t="n">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="AS9" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AT9" t="n">
         <v>888</v>
@@ -2194,13 +2194,13 @@
         <v>888</v>
       </c>
       <c r="AV9" t="n">
-        <v>888</v>
+        <v>196</v>
       </c>
       <c r="AW9" t="n">
-        <v>888</v>
+        <v>196</v>
       </c>
       <c r="AX9" t="n">
-        <v>888</v>
+        <v>196</v>
       </c>
       <c r="AY9" t="n">
         <v>196</v>
@@ -2430,73 +2430,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31499</v>
+        <v>1253</v>
       </c>
       <c r="C11" t="n">
-        <v>37844</v>
+        <v>1299</v>
       </c>
       <c r="D11" t="n">
-        <v>1937</v>
+        <v>1232</v>
       </c>
       <c r="E11" t="n">
-        <v>1253</v>
+        <v>1327</v>
       </c>
       <c r="F11" t="n">
-        <v>1299</v>
+        <v>1324</v>
       </c>
       <c r="G11" t="n">
-        <v>1232</v>
+        <v>1363</v>
       </c>
       <c r="H11" t="n">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I11" t="n">
-        <v>1324</v>
+        <v>7368</v>
       </c>
       <c r="J11" t="n">
-        <v>1363</v>
+        <v>7368</v>
       </c>
       <c r="K11" t="n">
-        <v>1328</v>
+        <v>7372</v>
       </c>
       <c r="L11" t="n">
-        <v>7368</v>
+        <v>2917</v>
       </c>
       <c r="M11" t="n">
-        <v>7368</v>
+        <v>389</v>
       </c>
       <c r="N11" t="n">
-        <v>7372</v>
+        <v>392</v>
       </c>
       <c r="O11" t="n">
-        <v>2917</v>
+        <v>367</v>
       </c>
       <c r="P11" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q11" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="R11" t="n">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="S11" t="n">
-        <v>386</v>
+        <v>644</v>
       </c>
       <c r="T11" t="n">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="U11" t="n">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="V11" t="n">
-        <v>644</v>
+        <v>344</v>
       </c>
       <c r="W11" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="X11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y11" t="n">
         <v>344</v>
@@ -2505,55 +2505,55 @@
         <v>344</v>
       </c>
       <c r="AA11" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB11" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AC11" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AD11" t="n">
         <v>344</v>
       </c>
       <c r="AE11" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF11" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH11" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI11" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AJ11" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AK11" t="n">
+        <v>340</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>340</v>
+      </c>
+      <c r="AM11" t="n">
         <v>348</v>
       </c>
-      <c r="AL11" t="n">
-        <v>339</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>340</v>
-      </c>
       <c r="AN11" t="n">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AO11" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AP11" t="n">
         <v>348</v>
       </c>
       <c r="AQ11" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AR11" t="n">
         <v>348</v>
@@ -2568,34 +2568,34 @@
         <v>348</v>
       </c>
       <c r="AV11" t="n">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="AW11" t="n">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="AX11" t="n">
-        <v>348</v>
+        <v>217</v>
       </c>
       <c r="AY11" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AZ11" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="BA11" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="BB11" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BC11" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="BD11" t="n">
         <v>242</v>
       </c>
       <c r="BE11" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BF11" t="n">
         <v>242</v>
@@ -2617,184 +2617,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>697</v>
+        <v>116</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="E12" t="n">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="F12" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G12" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H12" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I12" t="n">
-        <v>179</v>
+        <v>891</v>
       </c>
       <c r="J12" t="n">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="K12" t="n">
-        <v>185</v>
+        <v>608</v>
       </c>
       <c r="L12" t="n">
-        <v>891</v>
+        <v>202</v>
       </c>
       <c r="M12" t="n">
-        <v>386</v>
+        <v>549</v>
       </c>
       <c r="N12" t="n">
-        <v>608</v>
+        <v>223</v>
       </c>
       <c r="O12" t="n">
+        <v>344</v>
+      </c>
+      <c r="P12" t="n">
+        <v>216</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>236</v>
+      </c>
+      <c r="R12" t="n">
+        <v>774</v>
+      </c>
+      <c r="S12" t="n">
+        <v>236</v>
+      </c>
+      <c r="T12" t="n">
+        <v>307</v>
+      </c>
+      <c r="U12" t="n">
+        <v>206</v>
+      </c>
+      <c r="V12" t="n">
+        <v>203</v>
+      </c>
+      <c r="W12" t="n">
+        <v>203</v>
+      </c>
+      <c r="X12" t="n">
         <v>202</v>
       </c>
-      <c r="P12" t="n">
-        <v>549</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>223</v>
-      </c>
-      <c r="R12" t="n">
-        <v>344</v>
-      </c>
-      <c r="S12" t="n">
-        <v>216</v>
-      </c>
-      <c r="T12" t="n">
-        <v>236</v>
-      </c>
-      <c r="U12" t="n">
-        <v>774</v>
-      </c>
-      <c r="V12" t="n">
-        <v>236</v>
-      </c>
-      <c r="W12" t="n">
-        <v>307</v>
-      </c>
-      <c r="X12" t="n">
-        <v>206</v>
-      </c>
       <c r="Y12" t="n">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="Z12" t="n">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="AA12" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="AB12" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="AC12" t="n">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="AD12" t="n">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="AE12" t="n">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="AF12" t="n">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="AG12" t="n">
-        <v>346</v>
+        <v>470</v>
       </c>
       <c r="AH12" t="n">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AI12" t="n">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="AJ12" t="n">
-        <v>470</v>
+        <v>662</v>
       </c>
       <c r="AK12" t="n">
-        <v>534</v>
+        <v>714</v>
       </c>
       <c r="AL12" t="n">
-        <v>547</v>
+        <v>747</v>
       </c>
       <c r="AM12" t="n">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="AN12" t="n">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="AO12" t="n">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="AP12" t="n">
-        <v>749</v>
+        <v>997</v>
       </c>
       <c r="AQ12" t="n">
-        <v>758</v>
+        <v>1068</v>
       </c>
       <c r="AR12" t="n">
-        <v>845</v>
+        <v>1193</v>
       </c>
       <c r="AS12" t="n">
-        <v>997</v>
+        <v>1258</v>
       </c>
       <c r="AT12" t="n">
-        <v>1068</v>
+        <v>1320</v>
       </c>
       <c r="AU12" t="n">
-        <v>1193</v>
+        <v>1428</v>
       </c>
       <c r="AV12" t="n">
-        <v>1258</v>
+        <v>974</v>
       </c>
       <c r="AW12" t="n">
-        <v>1320</v>
+        <v>1005</v>
       </c>
       <c r="AX12" t="n">
-        <v>1428</v>
+        <v>1008</v>
       </c>
       <c r="AY12" t="n">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1005</v>
+        <v>1123</v>
       </c>
       <c r="BA12" t="n">
-        <v>1008</v>
+        <v>1140</v>
       </c>
       <c r="BB12" t="n">
-        <v>1028</v>
+        <v>1212</v>
       </c>
       <c r="BC12" t="n">
-        <v>1123</v>
+        <v>1435</v>
       </c>
       <c r="BD12" t="n">
-        <v>1140</v>
+        <v>1642</v>
       </c>
       <c r="BE12" t="n">
-        <v>1212</v>
+        <v>1807</v>
       </c>
       <c r="BF12" t="n">
-        <v>1435</v>
+        <v>1023</v>
       </c>
       <c r="BG12" t="n">
-        <v>1642</v>
+        <v>330</v>
       </c>
       <c r="BH12" t="n">
-        <v>1807</v>
+        <v>-292</v>
       </c>
       <c r="BI12" t="n">
-        <v>1023</v>
+        <v>-738</v>
       </c>
     </row>
     <row r="13">
@@ -3199,103 +3199,103 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="L15" t="n">
-        <v>891</v>
+        <v>202</v>
       </c>
       <c r="M15" t="n">
-        <v>386</v>
+        <v>549</v>
       </c>
       <c r="N15" t="n">
-        <v>608</v>
+        <v>223</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>216</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>236</v>
+      </c>
+      <c r="R15" t="n">
+        <v>774</v>
+      </c>
+      <c r="S15" t="n">
+        <v>236</v>
+      </c>
+      <c r="T15" t="n">
+        <v>307</v>
+      </c>
+      <c r="U15" t="n">
+        <v>206</v>
+      </c>
+      <c r="V15" t="n">
+        <v>203</v>
+      </c>
+      <c r="W15" t="n">
+        <v>203</v>
+      </c>
+      <c r="X15" t="n">
         <v>202</v>
       </c>
-      <c r="P15" t="n">
-        <v>549</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>223</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>216</v>
-      </c>
-      <c r="T15" t="n">
-        <v>236</v>
-      </c>
-      <c r="U15" t="n">
-        <v>774</v>
-      </c>
-      <c r="V15" t="n">
-        <v>236</v>
-      </c>
-      <c r="W15" t="n">
-        <v>307</v>
-      </c>
-      <c r="X15" t="n">
-        <v>206</v>
-      </c>
       <c r="Y15" t="n">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="Z15" t="n">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="AA15" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="AB15" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="AC15" t="n">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="AD15" t="n">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="AE15" t="n">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="AF15" t="n">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="AG15" t="n">
-        <v>346</v>
+        <v>470</v>
       </c>
       <c r="AH15" t="n">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AI15" t="n">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="AJ15" t="n">
-        <v>470</v>
+        <v>662</v>
       </c>
       <c r="AK15" t="n">
-        <v>534</v>
+        <v>714</v>
       </c>
       <c r="AL15" t="n">
-        <v>547</v>
+        <v>747</v>
       </c>
       <c r="AM15" t="n">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -3476,73 +3476,73 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="AP16" t="n">
-        <v>749</v>
+        <v>997</v>
       </c>
       <c r="AQ16" t="n">
-        <v>758</v>
+        <v>1068</v>
       </c>
       <c r="AR16" t="n">
-        <v>845</v>
+        <v>1193</v>
       </c>
       <c r="AS16" t="n">
-        <v>997</v>
+        <v>1258</v>
       </c>
       <c r="AT16" t="n">
-        <v>1068</v>
+        <v>1320</v>
       </c>
       <c r="AU16" t="n">
-        <v>1193</v>
+        <v>1428</v>
       </c>
       <c r="AV16" t="n">
-        <v>1258</v>
+        <v>974</v>
       </c>
       <c r="AW16" t="n">
-        <v>1320</v>
+        <v>836</v>
       </c>
       <c r="AX16" t="n">
-        <v>1428</v>
+        <v>1008</v>
       </c>
       <c r="AY16" t="n">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="AZ16" t="n">
-        <v>836</v>
+        <v>955</v>
       </c>
       <c r="BA16" t="n">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="BB16" t="n">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="BC16" t="n">
-        <v>955</v>
+        <v>1277</v>
       </c>
       <c r="BD16" t="n">
-        <v>983</v>
+        <v>1485</v>
       </c>
       <c r="BE16" t="n">
-        <v>1054</v>
+        <v>1650</v>
       </c>
       <c r="BF16" t="n">
-        <v>1277</v>
+        <v>866</v>
       </c>
       <c r="BG16" t="n">
-        <v>1485</v>
+        <v>173</v>
       </c>
       <c r="BH16" t="n">
-        <v>1650</v>
+        <v>-449</v>
       </c>
       <c r="BI16" t="n">
-        <v>866</v>
+        <v>-895</v>
       </c>
     </row>
     <row r="17">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -4300,34 +4300,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="F21" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G21" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H21" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I21" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="n">
         <v>58</v>
@@ -4502,7 +4502,7 @@
         <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
         <v>58</v>
@@ -4511,7 +4511,7 @@
         <v>58</v>
       </c>
       <c r="J22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" t="n">
         <v>58</v>
@@ -4674,118 +4674,118 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30213</v>
+        <v>29507</v>
       </c>
       <c r="C23" t="n">
-        <v>29824</v>
+        <v>29104</v>
       </c>
       <c r="D23" t="n">
-        <v>29284</v>
+        <v>28697</v>
       </c>
       <c r="E23" t="n">
-        <v>29507</v>
+        <v>28215</v>
       </c>
       <c r="F23" t="n">
-        <v>29104</v>
+        <v>26526</v>
       </c>
       <c r="G23" t="n">
-        <v>28697</v>
+        <v>26527</v>
       </c>
       <c r="H23" t="n">
-        <v>28215</v>
+        <v>25135</v>
       </c>
       <c r="I23" t="n">
-        <v>26526</v>
+        <v>19159</v>
       </c>
       <c r="J23" t="n">
-        <v>26527</v>
+        <v>18659</v>
       </c>
       <c r="K23" t="n">
-        <v>25135</v>
+        <v>17402</v>
       </c>
       <c r="L23" t="n">
-        <v>19159</v>
+        <v>16900</v>
       </c>
       <c r="M23" t="n">
-        <v>18659</v>
+        <v>17026</v>
       </c>
       <c r="N23" t="n">
-        <v>17402</v>
+        <v>16524</v>
       </c>
       <c r="O23" t="n">
-        <v>16900</v>
+        <v>15901</v>
       </c>
       <c r="P23" t="n">
-        <v>17026</v>
+        <v>15401</v>
       </c>
       <c r="Q23" t="n">
-        <v>16524</v>
+        <v>14686</v>
       </c>
       <c r="R23" t="n">
-        <v>15901</v>
+        <v>14183</v>
       </c>
       <c r="S23" t="n">
-        <v>15401</v>
+        <v>13681</v>
       </c>
       <c r="T23" t="n">
-        <v>14686</v>
+        <v>13179</v>
       </c>
       <c r="U23" t="n">
-        <v>14183</v>
+        <v>4432</v>
       </c>
       <c r="V23" t="n">
-        <v>13681</v>
+        <v>3929</v>
       </c>
       <c r="W23" t="n">
-        <v>13179</v>
+        <v>3165</v>
       </c>
       <c r="X23" t="n">
-        <v>4432</v>
+        <v>3014</v>
       </c>
       <c r="Y23" t="n">
-        <v>3929</v>
+        <v>2863</v>
       </c>
       <c r="Z23" t="n">
-        <v>3165</v>
+        <v>2712</v>
       </c>
       <c r="AA23" t="n">
-        <v>3014</v>
+        <v>2560</v>
       </c>
       <c r="AB23" t="n">
-        <v>2863</v>
+        <v>2409</v>
       </c>
       <c r="AC23" t="n">
-        <v>2712</v>
+        <v>2258</v>
       </c>
       <c r="AD23" t="n">
-        <v>2560</v>
+        <v>2107</v>
       </c>
       <c r="AE23" t="n">
-        <v>2409</v>
+        <v>1956</v>
       </c>
       <c r="AF23" t="n">
-        <v>2258</v>
+        <v>1806</v>
       </c>
       <c r="AG23" t="n">
-        <v>2107</v>
+        <v>1005</v>
       </c>
       <c r="AH23" t="n">
-        <v>1956</v>
+        <v>1005</v>
       </c>
       <c r="AI23" t="n">
-        <v>1806</v>
+        <v>859</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1005</v>
+        <v>713</v>
       </c>
       <c r="AK23" t="n">
-        <v>1005</v>
+        <v>566</v>
       </c>
       <c r="AL23" t="n">
-        <v>859</v>
+        <v>566</v>
       </c>
       <c r="AM23" t="n">
-        <v>713</v>
+        <v>566</v>
       </c>
       <c r="AN23" t="n">
         <v>566</v>
@@ -4800,22 +4800,22 @@
         <v>566</v>
       </c>
       <c r="AR23" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AS23" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AT23" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AU23" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AV23" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AW23" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AX23" t="n">
         <v>573</v>
@@ -4824,22 +4824,22 @@
         <v>573</v>
       </c>
       <c r="AZ23" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="BA23" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="BB23" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="BC23" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="BD23" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="BE23" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="BF23" t="n">
         <v>582</v>
@@ -4864,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>32</v>
@@ -4879,7 +4879,7 @@
         <v>32</v>
       </c>
       <c r="H24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" t="n">
         <v>32</v>
@@ -4888,7 +4888,7 @@
         <v>32</v>
       </c>
       <c r="K24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" t="n">
         <v>32</v>
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>74948</v>
+        <v>41412</v>
       </c>
       <c r="C26" t="n">
-        <v>79567</v>
+        <v>37193</v>
       </c>
       <c r="D26" t="n">
-        <v>42233</v>
+        <v>36256</v>
       </c>
       <c r="E26" t="n">
-        <v>41412</v>
+        <v>35344</v>
       </c>
       <c r="F26" t="n">
-        <v>37193</v>
+        <v>35255</v>
       </c>
       <c r="G26" t="n">
-        <v>36256</v>
+        <v>33794</v>
       </c>
       <c r="H26" t="n">
-        <v>35344</v>
+        <v>32301</v>
       </c>
       <c r="I26" t="n">
-        <v>35255</v>
+        <v>30844</v>
       </c>
       <c r="J26" t="n">
-        <v>33794</v>
+        <v>29837</v>
       </c>
       <c r="K26" t="n">
-        <v>32301</v>
+        <v>28745</v>
       </c>
       <c r="L26" t="n">
-        <v>30844</v>
+        <v>23376</v>
       </c>
       <c r="M26" t="n">
-        <v>29837</v>
+        <v>21191</v>
       </c>
       <c r="N26" t="n">
-        <v>28745</v>
+        <v>20367</v>
       </c>
       <c r="O26" t="n">
-        <v>23376</v>
+        <v>19820</v>
       </c>
       <c r="P26" t="n">
-        <v>21191</v>
+        <v>19208</v>
       </c>
       <c r="Q26" t="n">
-        <v>20367</v>
+        <v>19118</v>
       </c>
       <c r="R26" t="n">
-        <v>19820</v>
+        <v>18251</v>
       </c>
       <c r="S26" t="n">
-        <v>19208</v>
+        <v>17460</v>
       </c>
       <c r="T26" t="n">
-        <v>19118</v>
+        <v>16732</v>
       </c>
       <c r="U26" t="n">
-        <v>18251</v>
+        <v>7881</v>
       </c>
       <c r="V26" t="n">
-        <v>17460</v>
+        <v>7380</v>
       </c>
       <c r="W26" t="n">
-        <v>16732</v>
+        <v>6610</v>
       </c>
       <c r="X26" t="n">
-        <v>7881</v>
+        <v>6458</v>
       </c>
       <c r="Y26" t="n">
-        <v>7380</v>
+        <v>6349</v>
       </c>
       <c r="Z26" t="n">
-        <v>6610</v>
+        <v>6180</v>
       </c>
       <c r="AA26" t="n">
-        <v>6458</v>
+        <v>6033</v>
       </c>
       <c r="AB26" t="n">
-        <v>6349</v>
+        <v>5966</v>
       </c>
       <c r="AC26" t="n">
-        <v>6180</v>
+        <v>5790</v>
       </c>
       <c r="AD26" t="n">
-        <v>6033</v>
+        <v>5693</v>
       </c>
       <c r="AE26" t="n">
-        <v>5966</v>
+        <v>5592</v>
       </c>
       <c r="AF26" t="n">
-        <v>5790</v>
+        <v>5470</v>
       </c>
       <c r="AG26" t="n">
-        <v>5693</v>
+        <v>4717</v>
       </c>
       <c r="AH26" t="n">
-        <v>5592</v>
+        <v>4784</v>
       </c>
       <c r="AI26" t="n">
-        <v>5470</v>
+        <v>4640</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4717</v>
+        <v>4612</v>
       </c>
       <c r="AK26" t="n">
-        <v>4784</v>
+        <v>4516</v>
       </c>
       <c r="AL26" t="n">
-        <v>4640</v>
+        <v>4552</v>
       </c>
       <c r="AM26" t="n">
-        <v>4612</v>
+        <v>4560</v>
       </c>
       <c r="AN26" t="n">
-        <v>4516</v>
+        <v>4573</v>
       </c>
       <c r="AO26" t="n">
-        <v>4552</v>
+        <v>4654</v>
       </c>
       <c r="AP26" t="n">
-        <v>4560</v>
+        <v>4811</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4573</v>
+        <v>4831</v>
       </c>
       <c r="AR26" t="n">
-        <v>4654</v>
+        <v>4959</v>
       </c>
       <c r="AS26" t="n">
-        <v>4811</v>
+        <v>5023</v>
       </c>
       <c r="AT26" t="n">
-        <v>4831</v>
+        <v>5087</v>
       </c>
       <c r="AU26" t="n">
-        <v>4959</v>
+        <v>5205</v>
       </c>
       <c r="AV26" t="n">
-        <v>5023</v>
+        <v>3921</v>
       </c>
       <c r="AW26" t="n">
-        <v>5087</v>
+        <v>3956</v>
       </c>
       <c r="AX26" t="n">
-        <v>5205</v>
+        <v>3965</v>
       </c>
       <c r="AY26" t="n">
-        <v>3921</v>
+        <v>3995</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3956</v>
+        <v>4096</v>
       </c>
       <c r="BA26" t="n">
-        <v>3965</v>
+        <v>4126</v>
       </c>
       <c r="BB26" t="n">
-        <v>3995</v>
+        <v>4200</v>
       </c>
       <c r="BC26" t="n">
-        <v>4096</v>
+        <v>4427</v>
       </c>
       <c r="BD26" t="n">
-        <v>4126</v>
+        <v>4635</v>
       </c>
       <c r="BE26" t="n">
-        <v>4200</v>
+        <v>4796</v>
       </c>
       <c r="BF26" t="n">
-        <v>4427</v>
+        <v>4461</v>
       </c>
       <c r="BG26" t="n">
-        <v>4635</v>
+        <v>4155</v>
       </c>
       <c r="BH26" t="n">
-        <v>4796</v>
+        <v>3537</v>
       </c>
       <c r="BI26" t="n">
-        <v>4461</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108225</v>
+        <v>82379</v>
       </c>
       <c r="C27" t="n">
-        <v>115190</v>
+        <v>113147</v>
       </c>
       <c r="D27" t="n">
-        <v>81379</v>
+        <v>114624</v>
       </c>
       <c r="E27" t="n">
-        <v>82379</v>
+        <v>119320</v>
       </c>
       <c r="F27" t="n">
-        <v>113147</v>
+        <v>119776</v>
       </c>
       <c r="G27" t="n">
-        <v>114624</v>
+        <v>118971</v>
       </c>
       <c r="H27" t="n">
-        <v>119320</v>
+        <v>119728</v>
       </c>
       <c r="I27" t="n">
-        <v>119776</v>
+        <v>124852</v>
       </c>
       <c r="J27" t="n">
-        <v>118971</v>
+        <v>126825</v>
       </c>
       <c r="K27" t="n">
-        <v>119728</v>
+        <v>128055</v>
       </c>
       <c r="L27" t="n">
-        <v>124852</v>
+        <v>133077</v>
       </c>
       <c r="M27" t="n">
-        <v>126825</v>
+        <v>130079</v>
       </c>
       <c r="N27" t="n">
-        <v>128055</v>
+        <v>131703</v>
       </c>
       <c r="O27" t="n">
-        <v>133077</v>
+        <v>133299</v>
       </c>
       <c r="P27" t="n">
-        <v>130079</v>
+        <v>134918</v>
       </c>
       <c r="Q27" t="n">
-        <v>131703</v>
+        <v>136072</v>
       </c>
       <c r="R27" t="n">
-        <v>133299</v>
+        <v>137718</v>
       </c>
       <c r="S27" t="n">
-        <v>134918</v>
+        <v>139356</v>
       </c>
       <c r="T27" t="n">
-        <v>136072</v>
+        <v>141152</v>
       </c>
       <c r="U27" t="n">
-        <v>137718</v>
+        <v>143048.992</v>
       </c>
       <c r="V27" t="n">
-        <v>139356</v>
+        <v>145220</v>
       </c>
       <c r="W27" t="n">
-        <v>141152</v>
+        <v>146674</v>
       </c>
       <c r="X27" t="n">
-        <v>143048.992</v>
+        <v>148859.008</v>
       </c>
       <c r="Y27" t="n">
-        <v>145220</v>
+        <v>154372.992</v>
       </c>
       <c r="Z27" t="n">
-        <v>146674</v>
+        <v>156670</v>
       </c>
       <c r="AA27" t="n">
-        <v>148859.008</v>
+        <v>159451.008</v>
       </c>
       <c r="AB27" t="n">
-        <v>154372.992</v>
+        <v>161908</v>
       </c>
       <c r="AC27" t="n">
-        <v>156670</v>
+        <v>164400.992</v>
       </c>
       <c r="AD27" t="n">
-        <v>159451.008</v>
+        <v>166796.992</v>
       </c>
       <c r="AE27" t="n">
-        <v>161908</v>
+        <v>169280.992</v>
       </c>
       <c r="AF27" t="n">
-        <v>164400.992</v>
+        <v>171864.992</v>
       </c>
       <c r="AG27" t="n">
-        <v>166796.992</v>
+        <v>173519.008</v>
       </c>
       <c r="AH27" t="n">
-        <v>169280.992</v>
+        <v>175460.992</v>
       </c>
       <c r="AI27" t="n">
-        <v>171864.992</v>
+        <v>177496.992</v>
       </c>
       <c r="AJ27" t="n">
-        <v>173519.008</v>
+        <v>179356.992</v>
       </c>
       <c r="AK27" t="n">
-        <v>175460.992</v>
+        <v>179332</v>
       </c>
       <c r="AL27" t="n">
-        <v>177496.992</v>
+        <v>169151.008</v>
       </c>
       <c r="AM27" t="n">
-        <v>179356.992</v>
+        <v>169436</v>
       </c>
       <c r="AN27" t="n">
-        <v>179332</v>
+        <v>169842</v>
       </c>
       <c r="AO27" t="n">
-        <v>169151.008</v>
+        <v>154767.008</v>
       </c>
       <c r="AP27" t="n">
-        <v>169436</v>
+        <v>155276</v>
       </c>
       <c r="AQ27" t="n">
-        <v>169842</v>
+        <v>155739.008</v>
       </c>
       <c r="AR27" t="n">
-        <v>154767.008</v>
+        <v>156288</v>
       </c>
       <c r="AS27" t="n">
-        <v>155276</v>
+        <v>158686</v>
       </c>
       <c r="AT27" t="n">
-        <v>155739.008</v>
+        <v>159446</v>
       </c>
       <c r="AU27" t="n">
-        <v>156288</v>
+        <v>162078</v>
       </c>
       <c r="AV27" t="n">
-        <v>158686</v>
+        <v>146423.008</v>
       </c>
       <c r="AW27" t="n">
-        <v>159446</v>
+        <v>147592.992</v>
       </c>
       <c r="AX27" t="n">
-        <v>162078</v>
+        <v>148992.992</v>
       </c>
       <c r="AY27" t="n">
-        <v>146423.008</v>
+        <v>150548</v>
       </c>
       <c r="AZ27" t="n">
-        <v>147592.992</v>
+        <v>152240</v>
       </c>
       <c r="BA27" t="n">
-        <v>148992.992</v>
+        <v>154096</v>
       </c>
       <c r="BB27" t="n">
-        <v>150548</v>
+        <v>156139.008</v>
       </c>
       <c r="BC27" t="n">
-        <v>152240</v>
+        <v>158367.008</v>
       </c>
       <c r="BD27" t="n">
-        <v>154096</v>
+        <v>160662</v>
       </c>
       <c r="BE27" t="n">
-        <v>156139.008</v>
+        <v>162963.008</v>
       </c>
       <c r="BF27" t="n">
-        <v>158367.008</v>
+        <v>165192.992</v>
       </c>
       <c r="BG27" t="n">
-        <v>160662</v>
+        <v>167722</v>
       </c>
       <c r="BH27" t="n">
-        <v>162963.008</v>
+        <v>170368.992</v>
       </c>
       <c r="BI27" t="n">
-        <v>165192.992</v>
+        <v>173010</v>
       </c>
     </row>
     <row r="28">
@@ -5630,163 +5630,163 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33705</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34878</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>35675</v>
       </c>
       <c r="L28" t="n">
-        <v>33705</v>
+        <v>31142</v>
       </c>
       <c r="M28" t="n">
-        <v>34878</v>
+        <v>34427</v>
       </c>
       <c r="N28" t="n">
-        <v>35675</v>
+        <v>39857</v>
       </c>
       <c r="O28" t="n">
-        <v>31142</v>
+        <v>36118</v>
       </c>
       <c r="P28" t="n">
-        <v>34427</v>
+        <v>42115</v>
       </c>
       <c r="Q28" t="n">
-        <v>39857</v>
+        <v>37908</v>
       </c>
       <c r="R28" t="n">
-        <v>36118</v>
+        <v>38845</v>
       </c>
       <c r="S28" t="n">
-        <v>42115</v>
+        <v>40017</v>
       </c>
       <c r="T28" t="n">
-        <v>37908</v>
+        <v>40789</v>
       </c>
       <c r="U28" t="n">
-        <v>38845</v>
+        <v>42863</v>
       </c>
       <c r="V28" t="n">
-        <v>40017</v>
+        <v>42915</v>
       </c>
       <c r="W28" t="n">
-        <v>40789</v>
+        <v>43424</v>
       </c>
       <c r="X28" t="n">
-        <v>42863</v>
+        <v>48257</v>
       </c>
       <c r="Y28" t="n">
-        <v>42915</v>
+        <v>47787</v>
       </c>
       <c r="Z28" t="n">
-        <v>43424</v>
+        <v>49018</v>
       </c>
       <c r="AA28" t="n">
-        <v>48257</v>
+        <v>49857</v>
       </c>
       <c r="AB28" t="n">
-        <v>47787</v>
+        <v>51499</v>
       </c>
       <c r="AC28" t="n">
-        <v>49018</v>
+        <v>57760</v>
       </c>
       <c r="AD28" t="n">
-        <v>49857</v>
+        <v>56633</v>
       </c>
       <c r="AE28" t="n">
-        <v>51499</v>
+        <v>61256</v>
       </c>
       <c r="AF28" t="n">
-        <v>57760</v>
+        <v>57177</v>
       </c>
       <c r="AG28" t="n">
-        <v>56633</v>
+        <v>62580</v>
       </c>
       <c r="AH28" t="n">
-        <v>61256</v>
+        <v>61807</v>
       </c>
       <c r="AI28" t="n">
-        <v>57177</v>
+        <v>62396</v>
       </c>
       <c r="AJ28" t="n">
-        <v>62580</v>
+        <v>64178</v>
       </c>
       <c r="AK28" t="n">
-        <v>61807</v>
+        <v>66602</v>
       </c>
       <c r="AL28" t="n">
-        <v>62396</v>
+        <v>60987</v>
       </c>
       <c r="AM28" t="n">
-        <v>64178</v>
+        <v>61933</v>
       </c>
       <c r="AN28" t="n">
-        <v>66602</v>
+        <v>63030</v>
       </c>
       <c r="AO28" t="n">
-        <v>60987</v>
+        <v>48668</v>
       </c>
       <c r="AP28" t="n">
-        <v>61933</v>
+        <v>51287</v>
       </c>
       <c r="AQ28" t="n">
-        <v>63030</v>
+        <v>49900</v>
       </c>
       <c r="AR28" t="n">
-        <v>48668</v>
+        <v>52390</v>
       </c>
       <c r="AS28" t="n">
-        <v>51287</v>
+        <v>49507</v>
       </c>
       <c r="AT28" t="n">
-        <v>49900</v>
+        <v>57558</v>
       </c>
       <c r="AU28" t="n">
-        <v>52390</v>
+        <v>58017</v>
       </c>
       <c r="AV28" t="n">
-        <v>49507</v>
+        <v>54805</v>
       </c>
       <c r="AW28" t="n">
-        <v>57558</v>
+        <v>56081</v>
       </c>
       <c r="AX28" t="n">
-        <v>58017</v>
+        <v>57119</v>
       </c>
       <c r="AY28" t="n">
-        <v>54805</v>
+        <v>58769</v>
       </c>
       <c r="AZ28" t="n">
-        <v>56081</v>
+        <v>60524</v>
       </c>
       <c r="BA28" t="n">
-        <v>57119</v>
+        <v>62271</v>
       </c>
       <c r="BB28" t="n">
-        <v>58769</v>
+        <v>64066</v>
       </c>
       <c r="BC28" t="n">
-        <v>60524</v>
+        <v>65935</v>
       </c>
       <c r="BD28" t="n">
-        <v>62271</v>
+        <v>67822</v>
       </c>
       <c r="BE28" t="n">
-        <v>64066</v>
+        <v>69803</v>
       </c>
       <c r="BF28" t="n">
-        <v>65935</v>
+        <v>71924</v>
       </c>
       <c r="BG28" t="n">
-        <v>67822</v>
+        <v>74065</v>
       </c>
       <c r="BH28" t="n">
-        <v>69803</v>
+        <v>76205</v>
       </c>
       <c r="BI28" t="n">
-        <v>71924</v>
+        <v>78348</v>
       </c>
     </row>
     <row r="29">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14909</v>
+        <v>13099</v>
       </c>
       <c r="C29" t="n">
-        <v>14534</v>
+        <v>42638</v>
       </c>
       <c r="D29" t="n">
-        <v>13400</v>
+        <v>43684</v>
       </c>
       <c r="E29" t="n">
-        <v>13099</v>
+        <v>44143</v>
       </c>
       <c r="F29" t="n">
-        <v>42638</v>
+        <v>43715</v>
       </c>
       <c r="G29" t="n">
-        <v>43684</v>
+        <v>43459</v>
       </c>
       <c r="H29" t="n">
-        <v>44143</v>
+        <v>43577</v>
       </c>
       <c r="I29" t="n">
-        <v>43715</v>
+        <v>43383</v>
       </c>
       <c r="J29" t="n">
-        <v>43459</v>
+        <v>43384</v>
       </c>
       <c r="K29" t="n">
-        <v>43577</v>
+        <v>43383</v>
       </c>
       <c r="L29" t="n">
-        <v>43383</v>
+        <v>43206</v>
       </c>
       <c r="M29" t="n">
-        <v>43384</v>
+        <v>49664</v>
       </c>
       <c r="N29" t="n">
-        <v>43383</v>
+        <v>49827</v>
       </c>
       <c r="O29" t="n">
-        <v>43206</v>
+        <v>49885</v>
       </c>
       <c r="P29" t="n">
-        <v>49664</v>
+        <v>49981</v>
       </c>
       <c r="Q29" t="n">
-        <v>49827</v>
+        <v>49693</v>
       </c>
       <c r="R29" t="n">
-        <v>49885</v>
+        <v>49790</v>
       </c>
       <c r="S29" t="n">
-        <v>49981</v>
+        <v>49791</v>
       </c>
       <c r="T29" t="n">
-        <v>49693</v>
+        <v>49833</v>
       </c>
       <c r="U29" t="n">
-        <v>49790</v>
+        <v>49922</v>
       </c>
       <c r="V29" t="n">
-        <v>49791</v>
+        <v>50184</v>
       </c>
       <c r="W29" t="n">
-        <v>49833</v>
+        <v>49708</v>
       </c>
       <c r="X29" t="n">
-        <v>49922</v>
+        <v>49793</v>
       </c>
       <c r="Y29" t="n">
-        <v>50184</v>
+        <v>53127</v>
       </c>
       <c r="Z29" t="n">
-        <v>49708</v>
+        <v>53230</v>
       </c>
       <c r="AA29" t="n">
+        <v>53651</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>53559</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>53490</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>53313</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>53065</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>52822</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>51762</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>50907</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>50212</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>49793</v>
       </c>
-      <c r="AB29" t="n">
-        <v>53127</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>53230</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>53651</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>53559</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>53490</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>53313</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>53065</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>52822</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>51762</v>
-      </c>
       <c r="AK29" t="n">
-        <v>50907</v>
+        <v>49278</v>
       </c>
       <c r="AL29" t="n">
-        <v>50212</v>
+        <v>48870</v>
       </c>
       <c r="AM29" t="n">
-        <v>49793</v>
+        <v>48374</v>
       </c>
       <c r="AN29" t="n">
-        <v>49278</v>
+        <v>47958</v>
       </c>
       <c r="AO29" t="n">
-        <v>48870</v>
+        <v>47627</v>
       </c>
       <c r="AP29" t="n">
-        <v>48374</v>
+        <v>47263</v>
       </c>
       <c r="AQ29" t="n">
-        <v>47958</v>
+        <v>46779</v>
       </c>
       <c r="AR29" t="n">
-        <v>47627</v>
+        <v>46432</v>
       </c>
       <c r="AS29" t="n">
-        <v>47263</v>
+        <v>46863</v>
       </c>
       <c r="AT29" t="n">
-        <v>46779</v>
+        <v>46530</v>
       </c>
       <c r="AU29" t="n">
-        <v>46432</v>
+        <v>46247</v>
       </c>
       <c r="AV29" t="n">
-        <v>46863</v>
+        <v>46168</v>
       </c>
       <c r="AW29" t="n">
-        <v>46530</v>
+        <v>45922</v>
       </c>
       <c r="AX29" t="n">
-        <v>46247</v>
+        <v>45747</v>
       </c>
       <c r="AY29" t="n">
-        <v>46168</v>
+        <v>45615</v>
       </c>
       <c r="AZ29" t="n">
-        <v>45922</v>
+        <v>45390</v>
       </c>
       <c r="BA29" t="n">
-        <v>45747</v>
+        <v>45214</v>
       </c>
       <c r="BB29" t="n">
-        <v>45615</v>
+        <v>45053</v>
       </c>
       <c r="BC29" t="n">
-        <v>45390</v>
+        <v>44867</v>
       </c>
       <c r="BD29" t="n">
-        <v>45214</v>
+        <v>44675</v>
       </c>
       <c r="BE29" t="n">
-        <v>45053</v>
+        <v>44483</v>
       </c>
       <c r="BF29" t="n">
-        <v>44867</v>
+        <v>44225</v>
       </c>
       <c r="BG29" t="n">
-        <v>44675</v>
+        <v>44120</v>
       </c>
       <c r="BH29" t="n">
-        <v>44483</v>
+        <v>44118</v>
       </c>
       <c r="BI29" t="n">
-        <v>44225</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="30">
@@ -5983,184 +5983,184 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34798</v>
+        <v>14973</v>
       </c>
       <c r="C30" t="n">
-        <v>36020</v>
+        <v>12949</v>
       </c>
       <c r="D30" t="n">
-        <v>14909</v>
+        <v>13375</v>
       </c>
       <c r="E30" t="n">
-        <v>14973</v>
+        <v>14019</v>
       </c>
       <c r="F30" t="n">
-        <v>12949</v>
+        <v>14072</v>
       </c>
       <c r="G30" t="n">
-        <v>13375</v>
+        <v>14117</v>
       </c>
       <c r="H30" t="n">
-        <v>14019</v>
+        <v>14212</v>
       </c>
       <c r="I30" t="n">
-        <v>14072</v>
+        <v>18056</v>
       </c>
       <c r="J30" t="n">
-        <v>14117</v>
+        <v>16788</v>
       </c>
       <c r="K30" t="n">
-        <v>14212</v>
+        <v>24599</v>
       </c>
       <c r="L30" t="n">
-        <v>18056</v>
+        <v>28510</v>
       </c>
       <c r="M30" t="n">
-        <v>16788</v>
+        <v>21569</v>
       </c>
       <c r="N30" t="n">
-        <v>24599</v>
+        <v>17616</v>
       </c>
       <c r="O30" t="n">
-        <v>28510</v>
+        <v>22898</v>
       </c>
       <c r="P30" t="n">
-        <v>21569</v>
+        <v>18424</v>
       </c>
       <c r="Q30" t="n">
-        <v>17616</v>
+        <v>24062</v>
       </c>
       <c r="R30" t="n">
-        <v>22898</v>
+        <v>24668</v>
       </c>
       <c r="S30" t="n">
-        <v>18424</v>
+        <v>25130</v>
       </c>
       <c r="T30" t="n">
-        <v>24062</v>
+        <v>26207</v>
       </c>
       <c r="U30" t="n">
-        <v>24668</v>
+        <v>25862</v>
       </c>
       <c r="V30" t="n">
-        <v>25130</v>
+        <v>27710</v>
       </c>
       <c r="W30" t="n">
-        <v>26207</v>
+        <v>29135</v>
       </c>
       <c r="X30" t="n">
-        <v>25862</v>
+        <v>26395</v>
       </c>
       <c r="Y30" t="n">
-        <v>27710</v>
+        <v>29032</v>
       </c>
       <c r="Z30" t="n">
-        <v>29135</v>
+        <v>30003</v>
       </c>
       <c r="AA30" t="n">
-        <v>26395</v>
+        <v>31516</v>
       </c>
       <c r="AB30" t="n">
-        <v>29032</v>
+        <v>32423</v>
       </c>
       <c r="AC30" t="n">
-        <v>30003</v>
+        <v>28731</v>
       </c>
       <c r="AD30" t="n">
-        <v>31516</v>
+        <v>32431</v>
       </c>
       <c r="AE30" t="n">
-        <v>32423</v>
+        <v>30540</v>
       </c>
       <c r="AF30" t="n">
-        <v>28731</v>
+        <v>37455</v>
       </c>
       <c r="AG30" t="n">
-        <v>32431</v>
+        <v>34897</v>
       </c>
       <c r="AH30" t="n">
-        <v>30540</v>
+        <v>38551</v>
       </c>
       <c r="AI30" t="n">
-        <v>37455</v>
+        <v>40797</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34897</v>
+        <v>41767</v>
       </c>
       <c r="AK30" t="n">
-        <v>38551</v>
+        <v>40398</v>
       </c>
       <c r="AL30" t="n">
-        <v>40797</v>
+        <v>36851</v>
       </c>
       <c r="AM30" t="n">
-        <v>41767</v>
+        <v>37253</v>
       </c>
       <c r="AN30" t="n">
-        <v>40398</v>
+        <v>37544</v>
       </c>
       <c r="AO30" t="n">
-        <v>36851</v>
+        <v>37729</v>
       </c>
       <c r="AP30" t="n">
-        <v>37253</v>
+        <v>36550</v>
       </c>
       <c r="AQ30" t="n">
-        <v>37544</v>
+        <v>39472</v>
       </c>
       <c r="AR30" t="n">
-        <v>37729</v>
+        <v>38445</v>
       </c>
       <c r="AS30" t="n">
-        <v>36550</v>
+        <v>42857</v>
       </c>
       <c r="AT30" t="n">
-        <v>39472</v>
+        <v>36349</v>
       </c>
       <c r="AU30" t="n">
-        <v>38445</v>
+        <v>39207</v>
       </c>
       <c r="AV30" t="n">
-        <v>42857</v>
+        <v>27086</v>
       </c>
       <c r="AW30" t="n">
-        <v>36349</v>
+        <v>27469</v>
       </c>
       <c r="AX30" t="n">
-        <v>39207</v>
+        <v>28249</v>
       </c>
       <c r="AY30" t="n">
-        <v>27086</v>
+        <v>28529</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27469</v>
+        <v>28934</v>
       </c>
       <c r="BA30" t="n">
-        <v>28249</v>
+        <v>29462</v>
       </c>
       <c r="BB30" t="n">
-        <v>28529</v>
+        <v>30114</v>
       </c>
       <c r="BC30" t="n">
-        <v>28934</v>
+        <v>30902</v>
       </c>
       <c r="BD30" t="n">
-        <v>29462</v>
+        <v>31688</v>
       </c>
       <c r="BE30" t="n">
-        <v>30114</v>
+        <v>32404</v>
       </c>
       <c r="BF30" t="n">
-        <v>30902</v>
+        <v>33052</v>
       </c>
       <c r="BG30" t="n">
-        <v>31688</v>
+        <v>33780</v>
       </c>
       <c r="BH30" t="n">
-        <v>32404</v>
+        <v>34499</v>
       </c>
       <c r="BI30" t="n">
-        <v>33052</v>
+        <v>35308</v>
       </c>
     </row>
     <row r="31">
@@ -6170,46 +6170,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25548</v>
+        <v>25714</v>
       </c>
       <c r="C31" t="n">
-        <v>25377</v>
+        <v>24632</v>
       </c>
       <c r="D31" t="n">
-        <v>25459</v>
+        <v>24444</v>
       </c>
       <c r="E31" t="n">
-        <v>25714</v>
+        <v>24327</v>
       </c>
       <c r="F31" t="n">
-        <v>24632</v>
+        <v>25751</v>
       </c>
       <c r="G31" t="n">
-        <v>24444</v>
+        <v>25838</v>
       </c>
       <c r="H31" t="n">
-        <v>24327</v>
+        <v>25846</v>
       </c>
       <c r="I31" t="n">
-        <v>25751</v>
+        <v>25103</v>
       </c>
       <c r="J31" t="n">
-        <v>25838</v>
+        <v>25103</v>
       </c>
       <c r="K31" t="n">
-        <v>25846</v>
+        <v>24398</v>
       </c>
       <c r="L31" t="n">
-        <v>25103</v>
+        <v>25196</v>
       </c>
       <c r="M31" t="n">
-        <v>25103</v>
+        <v>24398</v>
       </c>
       <c r="N31" t="n">
         <v>24398</v>
       </c>
       <c r="O31" t="n">
-        <v>25196</v>
+        <v>24398</v>
       </c>
       <c r="P31" t="n">
         <v>24398</v>
@@ -6224,34 +6224,34 @@
         <v>24398</v>
       </c>
       <c r="T31" t="n">
-        <v>24398</v>
+        <v>24308</v>
       </c>
       <c r="U31" t="n">
         <v>24398</v>
       </c>
       <c r="V31" t="n">
-        <v>24398</v>
+        <v>24404</v>
       </c>
       <c r="W31" t="n">
-        <v>24308</v>
+        <v>24407</v>
       </c>
       <c r="X31" t="n">
-        <v>24398</v>
+        <v>24414</v>
       </c>
       <c r="Y31" t="n">
-        <v>24404</v>
+        <v>24420</v>
       </c>
       <c r="Z31" t="n">
-        <v>24407</v>
+        <v>24419</v>
       </c>
       <c r="AA31" t="n">
-        <v>24414</v>
+        <v>24420</v>
       </c>
       <c r="AB31" t="n">
         <v>24420</v>
       </c>
       <c r="AC31" t="n">
-        <v>24419</v>
+        <v>24420</v>
       </c>
       <c r="AD31" t="n">
         <v>24420</v>
@@ -6260,94 +6260,94 @@
         <v>24420</v>
       </c>
       <c r="AF31" t="n">
-        <v>24420</v>
+        <v>24411</v>
       </c>
       <c r="AG31" t="n">
-        <v>24420</v>
+        <v>24280</v>
       </c>
       <c r="AH31" t="n">
-        <v>24420</v>
+        <v>24196</v>
       </c>
       <c r="AI31" t="n">
-        <v>24411</v>
+        <v>24092</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24280</v>
+        <v>23619</v>
       </c>
       <c r="AK31" t="n">
-        <v>24196</v>
+        <v>23054</v>
       </c>
       <c r="AL31" t="n">
-        <v>24092</v>
+        <v>22443</v>
       </c>
       <c r="AM31" t="n">
-        <v>23619</v>
+        <v>21876</v>
       </c>
       <c r="AN31" t="n">
-        <v>23054</v>
+        <v>21310</v>
       </c>
       <c r="AO31" t="n">
-        <v>22443</v>
+        <v>20743</v>
       </c>
       <c r="AP31" t="n">
-        <v>21876</v>
+        <v>20176</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21310</v>
+        <v>19588</v>
       </c>
       <c r="AR31" t="n">
-        <v>20743</v>
+        <v>19021</v>
       </c>
       <c r="AS31" t="n">
-        <v>20176</v>
+        <v>19459</v>
       </c>
       <c r="AT31" t="n">
-        <v>19588</v>
+        <v>19009</v>
       </c>
       <c r="AU31" t="n">
-        <v>19021</v>
+        <v>18607</v>
       </c>
       <c r="AV31" t="n">
-        <v>19459</v>
+        <v>18364</v>
       </c>
       <c r="AW31" t="n">
-        <v>19009</v>
+        <v>18121</v>
       </c>
       <c r="AX31" t="n">
-        <v>18607</v>
+        <v>17878</v>
       </c>
       <c r="AY31" t="n">
-        <v>18364</v>
+        <v>17635</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18121</v>
+        <v>17392</v>
       </c>
       <c r="BA31" t="n">
-        <v>17878</v>
+        <v>17149</v>
       </c>
       <c r="BB31" t="n">
-        <v>17635</v>
+        <v>16906</v>
       </c>
       <c r="BC31" t="n">
-        <v>17392</v>
+        <v>16663</v>
       </c>
       <c r="BD31" t="n">
-        <v>17149</v>
+        <v>16477</v>
       </c>
       <c r="BE31" t="n">
-        <v>16906</v>
+        <v>16273</v>
       </c>
       <c r="BF31" t="n">
-        <v>16663</v>
+        <v>15992</v>
       </c>
       <c r="BG31" t="n">
-        <v>16477</v>
+        <v>15757</v>
       </c>
       <c r="BH31" t="n">
-        <v>16273</v>
+        <v>15547</v>
       </c>
       <c r="BI31" t="n">
-        <v>15992</v>
+        <v>15335</v>
       </c>
     </row>
     <row r="32">
@@ -6378,25 +6378,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4587</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6672</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>4587</v>
+        <v>4878</v>
       </c>
       <c r="M32" t="n">
-        <v>6672</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4878</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -6731,52 +6731,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32970</v>
+        <v>4799</v>
       </c>
       <c r="C34" t="n">
-        <v>39259</v>
+        <v>32928</v>
       </c>
       <c r="D34" t="n">
-        <v>5498</v>
+        <v>33121</v>
       </c>
       <c r="E34" t="n">
-        <v>4799</v>
+        <v>36712</v>
       </c>
       <c r="F34" t="n">
-        <v>32928</v>
+        <v>36238</v>
       </c>
       <c r="G34" t="n">
-        <v>33121</v>
+        <v>35433</v>
       </c>
       <c r="H34" t="n">
-        <v>36712</v>
+        <v>36093</v>
       </c>
       <c r="I34" t="n">
-        <v>36238</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>35433</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>36093</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -6918,73 +6918,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>23794</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22113</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>23794</v>
+        <v>119</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H35" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U35" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
         <v>7</v>
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1954</v>
+        <v>1934</v>
       </c>
       <c r="C37" t="n">
         <v>1934</v>
@@ -7301,37 +7301,37 @@
         <v>1934</v>
       </c>
       <c r="E37" t="n">
-        <v>1934</v>
+        <v>1654</v>
       </c>
       <c r="F37" t="n">
-        <v>1934</v>
+        <v>1654</v>
       </c>
       <c r="G37" t="n">
-        <v>1934</v>
+        <v>1654</v>
       </c>
       <c r="H37" t="n">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="I37" t="n">
-        <v>1654</v>
+        <v>44</v>
       </c>
       <c r="J37" t="n">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1647</v>
+        <v>731</v>
       </c>
       <c r="L37" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="N37" t="n">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="O37" t="n">
-        <v>250</v>
+        <v>706</v>
       </c>
       <c r="P37" t="n">
         <v>706</v>
@@ -7430,46 +7430,46 @@
         <v>706</v>
       </c>
       <c r="AV37" t="n">
-        <v>706</v>
+        <v>14892</v>
       </c>
       <c r="AW37" t="n">
-        <v>706</v>
+        <v>14598</v>
       </c>
       <c r="AX37" t="n">
-        <v>706</v>
+        <v>14305</v>
       </c>
       <c r="AY37" t="n">
-        <v>14892</v>
+        <v>14011</v>
       </c>
       <c r="AZ37" t="n">
-        <v>14598</v>
+        <v>13718</v>
       </c>
       <c r="BA37" t="n">
-        <v>14305</v>
+        <v>13424</v>
       </c>
       <c r="BB37" t="n">
-        <v>14011</v>
+        <v>13131</v>
       </c>
       <c r="BC37" t="n">
-        <v>13718</v>
+        <v>12837</v>
       </c>
       <c r="BD37" t="n">
-        <v>13424</v>
+        <v>12544</v>
       </c>
       <c r="BE37" t="n">
-        <v>13131</v>
+        <v>12250</v>
       </c>
       <c r="BF37" t="n">
-        <v>12837</v>
+        <v>11957</v>
       </c>
       <c r="BG37" t="n">
-        <v>12544</v>
+        <v>11663</v>
       </c>
       <c r="BH37" t="n">
-        <v>12250</v>
+        <v>11370</v>
       </c>
       <c r="BI37" t="n">
-        <v>11957</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="38">
@@ -7479,46 +7479,46 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>206</v>
+      </c>
+      <c r="C38" t="n">
+        <v>705</v>
+      </c>
+      <c r="D38" t="n">
+        <v>705</v>
+      </c>
+      <c r="E38" t="n">
         <v>706</v>
-      </c>
-      <c r="C38" t="n">
-        <v>706</v>
-      </c>
-      <c r="D38" t="n">
-        <v>206</v>
-      </c>
-      <c r="E38" t="n">
-        <v>206</v>
       </c>
       <c r="F38" t="n">
         <v>705</v>
       </c>
       <c r="G38" t="n">
+        <v>706</v>
+      </c>
+      <c r="H38" t="n">
         <v>705</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>696</v>
+      </c>
+      <c r="L38" t="n">
+        <v>206</v>
+      </c>
+      <c r="M38" t="n">
         <v>706</v>
       </c>
-      <c r="I38" t="n">
-        <v>705</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="N38" t="n">
         <v>706</v>
       </c>
-      <c r="K38" t="n">
-        <v>705</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>696</v>
-      </c>
       <c r="O38" t="n">
-        <v>206</v>
+        <v>706</v>
       </c>
       <c r="P38" t="n">
         <v>706</v>
@@ -7617,46 +7617,46 @@
         <v>706</v>
       </c>
       <c r="AV38" t="n">
-        <v>706</v>
+        <v>14892</v>
       </c>
       <c r="AW38" t="n">
-        <v>706</v>
+        <v>14598</v>
       </c>
       <c r="AX38" t="n">
-        <v>706</v>
+        <v>14305</v>
       </c>
       <c r="AY38" t="n">
-        <v>14892</v>
+        <v>14011</v>
       </c>
       <c r="AZ38" t="n">
-        <v>14598</v>
+        <v>13718</v>
       </c>
       <c r="BA38" t="n">
-        <v>14305</v>
+        <v>13424</v>
       </c>
       <c r="BB38" t="n">
-        <v>14011</v>
+        <v>13131</v>
       </c>
       <c r="BC38" t="n">
-        <v>13718</v>
+        <v>12837</v>
       </c>
       <c r="BD38" t="n">
-        <v>13424</v>
+        <v>12544</v>
       </c>
       <c r="BE38" t="n">
-        <v>13131</v>
+        <v>12250</v>
       </c>
       <c r="BF38" t="n">
-        <v>12837</v>
+        <v>11957</v>
       </c>
       <c r="BG38" t="n">
-        <v>12544</v>
+        <v>11663</v>
       </c>
       <c r="BH38" t="n">
-        <v>12250</v>
+        <v>11370</v>
       </c>
       <c r="BI38" t="n">
-        <v>11957</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="39">
@@ -7853,34 +7853,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1248</v>
+        <v>1728</v>
       </c>
       <c r="C40" t="n">
-        <v>1228</v>
+        <v>501</v>
       </c>
       <c r="D40" t="n">
-        <v>1728</v>
+        <v>501</v>
       </c>
       <c r="E40" t="n">
-        <v>1728</v>
+        <v>948</v>
       </c>
       <c r="F40" t="n">
-        <v>501</v>
+        <v>949</v>
       </c>
       <c r="G40" t="n">
-        <v>501</v>
+        <v>948</v>
       </c>
       <c r="H40" t="n">
-        <v>948</v>
+        <v>217</v>
       </c>
       <c r="I40" t="n">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -8417,22 +8417,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-35231</v>
+        <v>-42901</v>
       </c>
       <c r="C47" t="n">
-        <v>-37557</v>
+        <v>-77888</v>
       </c>
       <c r="D47" t="n">
-        <v>-41080</v>
+        <v>-80302</v>
       </c>
       <c r="E47" t="n">
-        <v>-42901</v>
+        <v>-85630</v>
       </c>
       <c r="F47" t="n">
-        <v>-77888</v>
+        <v>-86175</v>
       </c>
       <c r="G47" t="n">
-        <v>-80302</v>
+        <v>-86831</v>
       </c>
       <c r="H47" t="n">
-        <v>-85630</v>
+        <v>-89074</v>
       </c>
       <c r="I47" t="n">
-        <v>-86175</v>
+        <v>-94052</v>
       </c>
       <c r="J47" t="n">
-        <v>-86831</v>
+        <v>-96988</v>
       </c>
       <c r="K47" t="n">
-        <v>-89074</v>
+        <v>-100041</v>
       </c>
       <c r="L47" t="n">
-        <v>-94052</v>
+        <v>-109951</v>
       </c>
       <c r="M47" t="n">
-        <v>-96988</v>
+        <v>-109594</v>
       </c>
       <c r="N47" t="n">
-        <v>-100041</v>
+        <v>-112042</v>
       </c>
       <c r="O47" t="n">
-        <v>-109951</v>
+        <v>-114185</v>
       </c>
       <c r="P47" t="n">
-        <v>-109594</v>
+        <v>-116416</v>
       </c>
       <c r="Q47" t="n">
-        <v>-112042</v>
+        <v>-117660</v>
       </c>
       <c r="R47" t="n">
-        <v>-114185</v>
+        <v>-120173</v>
       </c>
       <c r="S47" t="n">
-        <v>-116416</v>
+        <v>-122602</v>
       </c>
       <c r="T47" t="n">
-        <v>-117660</v>
+        <v>-125126</v>
       </c>
       <c r="U47" t="n">
-        <v>-120173</v>
+        <v>-135874</v>
       </c>
       <c r="V47" t="n">
-        <v>-122602</v>
+        <v>-138546</v>
       </c>
       <c r="W47" t="n">
-        <v>-125126</v>
+        <v>-140770</v>
       </c>
       <c r="X47" t="n">
-        <v>-135874</v>
+        <v>-143107.008</v>
       </c>
       <c r="Y47" t="n">
-        <v>-138546</v>
+        <v>-148730</v>
       </c>
       <c r="Z47" t="n">
-        <v>-140770</v>
+        <v>-151196</v>
       </c>
       <c r="AA47" t="n">
-        <v>-143107.008</v>
+        <v>-154124</v>
       </c>
       <c r="AB47" t="n">
-        <v>-148730</v>
+        <v>-156648</v>
       </c>
       <c r="AC47" t="n">
-        <v>-151196</v>
+        <v>-159316.992</v>
       </c>
       <c r="AD47" t="n">
-        <v>-154124</v>
+        <v>-161810</v>
       </c>
       <c r="AE47" t="n">
-        <v>-156648</v>
+        <v>-164395.008</v>
       </c>
       <c r="AF47" t="n">
-        <v>-159316.992</v>
+        <v>-167100.992</v>
       </c>
       <c r="AG47" t="n">
-        <v>-161810</v>
+        <v>-169508</v>
       </c>
       <c r="AH47" t="n">
-        <v>-164395.008</v>
+        <v>-171383.008</v>
       </c>
       <c r="AI47" t="n">
-        <v>-167100.992</v>
+        <v>-173563.008</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-169508</v>
+        <v>-175451.008</v>
       </c>
       <c r="AK47" t="n">
-        <v>-171383.008</v>
+        <v>-175522</v>
       </c>
       <c r="AL47" t="n">
-        <v>-173563.008</v>
+        <v>-165304.992</v>
       </c>
       <c r="AM47" t="n">
-        <v>-175451.008</v>
+        <v>-165582</v>
       </c>
       <c r="AN47" t="n">
-        <v>-175522</v>
+        <v>-165975.008</v>
       </c>
       <c r="AO47" t="n">
-        <v>-165304.992</v>
+        <v>-150819.008</v>
       </c>
       <c r="AP47" t="n">
-        <v>-165582</v>
+        <v>-151171.008</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-165975.008</v>
+        <v>-151614</v>
       </c>
       <c r="AR47" t="n">
-        <v>-150819.008</v>
+        <v>-152035.008</v>
       </c>
       <c r="AS47" t="n">
-        <v>-151171.008</v>
+        <v>-154368.992</v>
       </c>
       <c r="AT47" t="n">
-        <v>-151614</v>
+        <v>-155064.992</v>
       </c>
       <c r="AU47" t="n">
-        <v>-152035.008</v>
+        <v>-157579.008</v>
       </c>
       <c r="AV47" t="n">
-        <v>-154368.992</v>
+        <v>-157394</v>
       </c>
       <c r="AW47" t="n">
-        <v>-155064.992</v>
+        <v>-158235.008</v>
       </c>
       <c r="AX47" t="n">
-        <v>-157579.008</v>
+        <v>-159332.992</v>
       </c>
       <c r="AY47" t="n">
-        <v>-157394</v>
+        <v>-160564</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-158235.008</v>
+        <v>-161862</v>
       </c>
       <c r="BA47" t="n">
-        <v>-159332.992</v>
+        <v>-163394</v>
       </c>
       <c r="BB47" t="n">
-        <v>-160564</v>
+        <v>-165070</v>
       </c>
       <c r="BC47" t="n">
-        <v>-161862</v>
+        <v>-166776.992</v>
       </c>
       <c r="BD47" t="n">
-        <v>-163394</v>
+        <v>-168571.008</v>
       </c>
       <c r="BE47" t="n">
-        <v>-165070</v>
+        <v>-170416.992</v>
       </c>
       <c r="BF47" t="n">
-        <v>-166776.992</v>
+        <v>-172688.992</v>
       </c>
       <c r="BG47" t="n">
-        <v>-168571.008</v>
+        <v>-175230</v>
       </c>
       <c r="BH47" t="n">
-        <v>-170416.992</v>
+        <v>-178202</v>
       </c>
       <c r="BI47" t="n">
-        <v>-172688.992</v>
+        <v>-181024.992</v>
       </c>
     </row>
     <row r="48">
@@ -9557,19 +9557,19 @@
         <v>16222</v>
       </c>
       <c r="I49" t="n">
-        <v>16222</v>
+        <v>14783</v>
       </c>
       <c r="J49" t="n">
-        <v>16222</v>
+        <v>14783</v>
       </c>
       <c r="K49" t="n">
-        <v>16222</v>
+        <v>14784</v>
       </c>
       <c r="L49" t="n">
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="M49" t="n">
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="N49" t="n">
         <v>14784</v>
@@ -9578,7 +9578,7 @@
         <v>14784</v>
       </c>
       <c r="P49" t="n">
-        <v>14784</v>
+        <v>14783</v>
       </c>
       <c r="Q49" t="n">
         <v>14784</v>
@@ -9587,7 +9587,7 @@
         <v>14784</v>
       </c>
       <c r="S49" t="n">
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="T49" t="n">
         <v>14784</v>
@@ -9641,13 +9641,13 @@
         <v>14784</v>
       </c>
       <c r="AK49" t="n">
-        <v>14784</v>
+        <v>14783</v>
       </c>
       <c r="AL49" t="n">
         <v>14784</v>
       </c>
       <c r="AM49" t="n">
-        <v>14784</v>
+        <v>14783</v>
       </c>
       <c r="AN49" t="n">
         <v>14783</v>
@@ -9656,10 +9656,10 @@
         <v>14784</v>
       </c>
       <c r="AP49" t="n">
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="AQ49" t="n">
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="AR49" t="n">
         <v>14784</v>
@@ -9713,7 +9713,7 @@
         <v>14784</v>
       </c>
       <c r="BI49" t="n">
-        <v>14784</v>
+        <v>14783</v>
       </c>
     </row>
     <row r="50">
@@ -9931,13 +9931,13 @@
         <v>-1439</v>
       </c>
       <c r="I51" t="n">
-        <v>-1439</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-1439</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-1439</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -10097,184 +10097,184 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-77052</v>
+        <v>-84722</v>
       </c>
       <c r="C52" t="n">
-        <v>-79378</v>
+        <v>-119709</v>
       </c>
       <c r="D52" t="n">
-        <v>-82901</v>
+        <v>-122123</v>
       </c>
       <c r="E52" t="n">
-        <v>-84722</v>
+        <v>-127451</v>
       </c>
       <c r="F52" t="n">
-        <v>-119709</v>
+        <v>-127996</v>
       </c>
       <c r="G52" t="n">
-        <v>-122123</v>
+        <v>-128652</v>
       </c>
       <c r="H52" t="n">
-        <v>-127451</v>
+        <v>-130895</v>
       </c>
       <c r="I52" t="n">
-        <v>-127996</v>
+        <v>-135872.992</v>
       </c>
       <c r="J52" t="n">
-        <v>-128652</v>
+        <v>-138808.992</v>
       </c>
       <c r="K52" t="n">
-        <v>-130895</v>
+        <v>-141863.008</v>
       </c>
       <c r="L52" t="n">
-        <v>-135872.992</v>
+        <v>-151772.992</v>
       </c>
       <c r="M52" t="n">
-        <v>-138808.992</v>
+        <v>-151416</v>
       </c>
       <c r="N52" t="n">
-        <v>-141863.008</v>
+        <v>-153864</v>
       </c>
       <c r="O52" t="n">
-        <v>-151772.992</v>
+        <v>-156007.008</v>
       </c>
       <c r="P52" t="n">
-        <v>-151416</v>
+        <v>-158236.992</v>
       </c>
       <c r="Q52" t="n">
-        <v>-153864</v>
+        <v>-159482</v>
       </c>
       <c r="R52" t="n">
-        <v>-156007.008</v>
+        <v>-161995.008</v>
       </c>
       <c r="S52" t="n">
-        <v>-158236.992</v>
+        <v>-164424</v>
       </c>
       <c r="T52" t="n">
-        <v>-159482</v>
+        <v>-166948</v>
       </c>
       <c r="U52" t="n">
-        <v>-161995.008</v>
+        <v>-177696</v>
       </c>
       <c r="V52" t="n">
-        <v>-164424</v>
+        <v>-180368</v>
       </c>
       <c r="W52" t="n">
-        <v>-166948</v>
+        <v>-182592</v>
       </c>
       <c r="X52" t="n">
-        <v>-177696</v>
+        <v>-184928.992</v>
       </c>
       <c r="Y52" t="n">
-        <v>-180368</v>
+        <v>-190552</v>
       </c>
       <c r="Z52" t="n">
-        <v>-182592</v>
+        <v>-193018</v>
       </c>
       <c r="AA52" t="n">
-        <v>-184928.992</v>
+        <v>-195946</v>
       </c>
       <c r="AB52" t="n">
-        <v>-190552</v>
+        <v>-198470</v>
       </c>
       <c r="AC52" t="n">
-        <v>-193018</v>
+        <v>-201139.008</v>
       </c>
       <c r="AD52" t="n">
-        <v>-195946</v>
+        <v>-203632</v>
       </c>
       <c r="AE52" t="n">
-        <v>-198470</v>
+        <v>-206216.992</v>
       </c>
       <c r="AF52" t="n">
-        <v>-201139.008</v>
+        <v>-208923.008</v>
       </c>
       <c r="AG52" t="n">
-        <v>-203632</v>
+        <v>-211330</v>
       </c>
       <c r="AH52" t="n">
-        <v>-206216.992</v>
+        <v>-213204.992</v>
       </c>
       <c r="AI52" t="n">
-        <v>-208923.008</v>
+        <v>-215384.992</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-211330</v>
+        <v>-217272.992</v>
       </c>
       <c r="AK52" t="n">
-        <v>-213204.992</v>
+        <v>-217343.008</v>
       </c>
       <c r="AL52" t="n">
-        <v>-215384.992</v>
+        <v>-207127.008</v>
       </c>
       <c r="AM52" t="n">
-        <v>-217272.992</v>
+        <v>-207403.008</v>
       </c>
       <c r="AN52" t="n">
-        <v>-217343.008</v>
+        <v>-207796</v>
       </c>
       <c r="AO52" t="n">
-        <v>-207127.008</v>
+        <v>-192640.992</v>
       </c>
       <c r="AP52" t="n">
-        <v>-207403.008</v>
+        <v>-192992.992</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-207796</v>
+        <v>-193436</v>
       </c>
       <c r="AR52" t="n">
-        <v>-192640.992</v>
+        <v>-193856.992</v>
       </c>
       <c r="AS52" t="n">
-        <v>-192992.992</v>
+        <v>-196191.008</v>
       </c>
       <c r="AT52" t="n">
-        <v>-193436</v>
+        <v>-196887.008</v>
       </c>
       <c r="AU52" t="n">
-        <v>-193856.992</v>
+        <v>-199400.992</v>
       </c>
       <c r="AV52" t="n">
-        <v>-196191.008</v>
+        <v>-199216</v>
       </c>
       <c r="AW52" t="n">
-        <v>-196887.008</v>
+        <v>-200056.992</v>
       </c>
       <c r="AX52" t="n">
-        <v>-199400.992</v>
+        <v>-201155.008</v>
       </c>
       <c r="AY52" t="n">
-        <v>-199216</v>
+        <v>-202386</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-200056.992</v>
+        <v>-203684</v>
       </c>
       <c r="BA52" t="n">
-        <v>-201155.008</v>
+        <v>-205216</v>
       </c>
       <c r="BB52" t="n">
-        <v>-202386</v>
+        <v>-206892</v>
       </c>
       <c r="BC52" t="n">
-        <v>-203684</v>
+        <v>-208599.008</v>
       </c>
       <c r="BD52" t="n">
-        <v>-205216</v>
+        <v>-210392.992</v>
       </c>
       <c r="BE52" t="n">
-        <v>-206892</v>
+        <v>-212239.008</v>
       </c>
       <c r="BF52" t="n">
-        <v>-208599.008</v>
+        <v>-214511.008</v>
       </c>
       <c r="BG52" t="n">
-        <v>-210392.992</v>
+        <v>-217052</v>
       </c>
       <c r="BH52" t="n">
-        <v>-212239.008</v>
+        <v>-220024</v>
       </c>
       <c r="BI52" t="n">
-        <v>-214511.008</v>
+        <v>-222846</v>
       </c>
     </row>
     <row r="53">
@@ -11032,32 +11032,26 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5570</v>
+        <v>2804</v>
       </c>
       <c r="C57" t="n">
-        <v>7240</v>
+        <v>5715</v>
       </c>
       <c r="D57" t="n">
-        <v>5632</v>
+        <v>-5604</v>
       </c>
       <c r="E57" t="n">
-        <v>2804</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>5715</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-5604</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -11117,32 +11111,26 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1084</v>
+        <v>-577</v>
       </c>
       <c r="C58" t="n">
-        <v>-1385</v>
+        <v>-1136</v>
       </c>
       <c r="D58" t="n">
-        <v>-1083</v>
+        <v>1076</v>
       </c>
       <c r="E58" t="n">
-        <v>-577</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-1136</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1076</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -11202,22 +11190,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4486</v>
+        <v>2227</v>
       </c>
       <c r="C59" t="n">
-        <v>5855</v>
+        <v>4579</v>
       </c>
       <c r="D59" t="n">
-        <v>4549</v>
+        <v>-4528</v>
       </c>
       <c r="E59" t="n">
-        <v>2227</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>4579</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-4528</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -11337,49 +11325,49 @@
         <v>0</v>
       </c>
       <c r="AU59" t="n">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="AV59" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="AW59" t="n">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="AX59" t="n">
-        <v>629</v>
+        <v>461</v>
       </c>
       <c r="AY59" t="n">
-        <v>696</v>
+        <v>980</v>
       </c>
       <c r="AZ59" t="n">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="BA59" t="n">
-        <v>461</v>
+        <v>767</v>
       </c>
       <c r="BB59" t="n">
-        <v>980</v>
+        <v>814</v>
       </c>
       <c r="BC59" t="n">
-        <v>775</v>
+        <v>848</v>
       </c>
       <c r="BD59" t="n">
-        <v>767</v>
+        <v>925</v>
       </c>
       <c r="BE59" t="n">
-        <v>814</v>
+        <v>16</v>
       </c>
       <c r="BF59" t="n">
-        <v>848</v>
+        <v>8</v>
       </c>
       <c r="BG59" t="n">
-        <v>925</v>
+        <v>7</v>
       </c>
       <c r="BH59" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BI59" t="n">
-        <v>8</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60">
@@ -11389,37 +11377,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4477</v>
+        <v>-5973</v>
       </c>
       <c r="C60" t="n">
-        <v>-5549</v>
+        <v>-4684</v>
       </c>
       <c r="D60" t="n">
-        <v>-4449</v>
+        <v>5251</v>
       </c>
       <c r="E60" t="n">
-        <v>-5973</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-4684</v>
+        <v>-197</v>
       </c>
       <c r="G60" t="n">
-        <v>5251</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I60" t="n">
-        <v>-197</v>
+        <v>197</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -11524,49 +11512,49 @@
         <v>0</v>
       </c>
       <c r="AU60" t="n">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="AV60" t="n">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="AW60" t="n">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="AX60" t="n">
-        <v>-58</v>
+        <v>-43</v>
       </c>
       <c r="AY60" t="n">
-        <v>-64</v>
+        <v>-90</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-64</v>
+        <v>-72</v>
       </c>
       <c r="BA60" t="n">
-        <v>-43</v>
+        <v>-72</v>
       </c>
       <c r="BB60" t="n">
-        <v>-90</v>
+        <v>-75</v>
       </c>
       <c r="BC60" t="n">
-        <v>-72</v>
+        <v>-77</v>
       </c>
       <c r="BD60" t="n">
-        <v>-72</v>
+        <v>-87</v>
       </c>
       <c r="BE60" t="n">
-        <v>-75</v>
+        <v>-2</v>
       </c>
       <c r="BF60" t="n">
-        <v>-77</v>
+        <v>-1</v>
       </c>
       <c r="BG60" t="n">
-        <v>-87</v>
+        <v>-2</v>
       </c>
       <c r="BH60" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BI60" t="n">
-        <v>-1</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="61">
@@ -11576,37 +11564,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>-3746</v>
       </c>
       <c r="C61" t="n">
-        <v>306</v>
+        <v>-105</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>723</v>
       </c>
       <c r="E61" t="n">
-        <v>-3746</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-105</v>
+        <v>-197</v>
       </c>
       <c r="G61" t="n">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I61" t="n">
-        <v>-197</v>
+        <v>197</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -11711,49 +11699,49 @@
         <v>0</v>
       </c>
       <c r="AU61" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="AV61" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="AW61" t="n">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="AX61" t="n">
-        <v>571</v>
+        <v>418</v>
       </c>
       <c r="AY61" t="n">
-        <v>632</v>
+        <v>890</v>
       </c>
       <c r="AZ61" t="n">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="BA61" t="n">
-        <v>418</v>
+        <v>695</v>
       </c>
       <c r="BB61" t="n">
-        <v>890</v>
+        <v>739</v>
       </c>
       <c r="BC61" t="n">
-        <v>703</v>
+        <v>771</v>
       </c>
       <c r="BD61" t="n">
-        <v>695</v>
+        <v>838</v>
       </c>
       <c r="BE61" t="n">
-        <v>739</v>
+        <v>14</v>
       </c>
       <c r="BF61" t="n">
-        <v>771</v>
+        <v>7</v>
       </c>
       <c r="BG61" t="n">
-        <v>838</v>
+        <v>5</v>
       </c>
       <c r="BH61" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BI61" t="n">
-        <v>7</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62">
@@ -11763,37 +11751,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-95</v>
+        <v>-80</v>
       </c>
       <c r="C62" t="n">
-        <v>-2073</v>
+        <v>-86</v>
       </c>
       <c r="D62" t="n">
-        <v>-101</v>
+        <v>80</v>
       </c>
       <c r="E62" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-86</v>
+        <v>-2</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -11950,184 +11938,184 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1001</v>
+        <v>-1709</v>
       </c>
       <c r="C63" t="n">
-        <v>-1165</v>
+        <v>-2193</v>
       </c>
       <c r="D63" t="n">
-        <v>-985</v>
+        <v>769</v>
       </c>
       <c r="E63" t="n">
-        <v>-1709</v>
+        <v>-836</v>
       </c>
       <c r="F63" t="n">
-        <v>-2193</v>
+        <v>-1143</v>
       </c>
       <c r="G63" t="n">
-        <v>769</v>
+        <v>-1263</v>
       </c>
       <c r="H63" t="n">
+        <v>-257</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-257</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-1131</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1048</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-560</v>
+      </c>
+      <c r="M63" t="n">
+        <v>475</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-118</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-941</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-526</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-2497</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-1020</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-348</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-10367</v>
+      </c>
+      <c r="V63" t="n">
         <v>-836</v>
       </c>
-      <c r="I63" t="n">
-        <v>-1143</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-1263</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-257</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-257</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-1131</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1048</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-290</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-3815</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-276</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-332</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-1014</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-307</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-350</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-1597</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-204</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-408</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-861</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-205</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-186</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-302</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-343</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-293</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-329</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-621</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-131</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-410</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-302</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-725</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>-304</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>-282</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>-509</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>-468</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>-468</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>-358</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>-394</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>-438</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>-438</v>
+      </c>
+      <c r="BF63" t="n">
         <v>-560</v>
       </c>
-      <c r="P63" t="n">
-        <v>475</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-118</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-941</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-526</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-2497</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-1020</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-348</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-10367</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-836</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-290</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-3815</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-276</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-332</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-1014</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-307</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-350</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-1597</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-204</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-408</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-861</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-205</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-186</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-302</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-343</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-293</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-329</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-621</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-131</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-410</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-302</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-725</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-304</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-282</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-509</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-468</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-468</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-358</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-394</v>
-      </c>
       <c r="BG63" t="n">
-        <v>-438</v>
+        <v>-569</v>
       </c>
       <c r="BH63" t="n">
-        <v>-438</v>
+        <v>-470</v>
       </c>
       <c r="BI63" t="n">
-        <v>-560</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="64">
@@ -12144,9 +12132,15 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
@@ -12166,70 +12160,70 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>-887</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="V64" t="n">
-        <v>-887</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X64" t="n">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z64" t="n">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>-651</v>
       </c>
       <c r="AB64" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="AD64" t="n">
-        <v>-651</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>-308</v>
       </c>
       <c r="AF64" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AH64" t="n">
-        <v>-308</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>-440</v>
       </c>
       <c r="AJ64" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AL64" t="n">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="AM64" t="n">
         <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AO64" t="n">
         <v>0</v>
@@ -12317,133 +12311,133 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J65" t="n">
+        <v>10</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-20</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>419</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
         <v>549</v>
       </c>
-      <c r="K65" t="n">
-        <v>810</v>
-      </c>
-      <c r="L65" t="n">
-        <v>810</v>
-      </c>
-      <c r="M65" t="n">
-        <v>10</v>
-      </c>
-      <c r="N65" t="n">
-        <v>10</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-20</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
       <c r="AG65" t="n">
-        <v>419</v>
+        <v>1045</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="AI65" t="n">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1045</v>
+        <v>700</v>
       </c>
       <c r="AK65" t="n">
-        <v>574</v>
+        <v>2199</v>
       </c>
       <c r="AL65" t="n">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="AM65" t="n">
-        <v>700</v>
+        <v>647</v>
       </c>
       <c r="AN65" t="n">
-        <v>2199</v>
+        <v>691</v>
       </c>
       <c r="AO65" t="n">
-        <v>655</v>
+        <v>778</v>
       </c>
       <c r="AP65" t="n">
-        <v>647</v>
+        <v>787</v>
       </c>
       <c r="AQ65" t="n">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="AR65" t="n">
-        <v>778</v>
+        <v>1568</v>
       </c>
       <c r="AS65" t="n">
-        <v>787</v>
+        <v>97</v>
       </c>
       <c r="AT65" t="n">
-        <v>782</v>
+        <v>828</v>
       </c>
       <c r="AU65" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="AV65" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -12495,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-3117</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -12504,58 +12498,58 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-3117</v>
+        <v>-6</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>-3774</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-3774</v>
       </c>
       <c r="J66" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-3774</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-3774</v>
+        <v>-502</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>-818</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
         <v>-502</v>
       </c>
-      <c r="P66" t="n">
-        <v>-818</v>
-      </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
         <v>-502</v>
       </c>
-      <c r="T66" t="n">
+      <c r="U66" t="n">
         <v>502</v>
       </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>-502</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -12863,184 +12857,184 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1211</v>
+        <v>-26786</v>
       </c>
       <c r="C68" t="n">
-        <v>-1031</v>
+        <v>-1359</v>
       </c>
       <c r="D68" t="n">
-        <v>-774</v>
+        <v>-2719</v>
       </c>
       <c r="E68" t="n">
-        <v>-26786</v>
+        <v>-1332</v>
       </c>
       <c r="F68" t="n">
-        <v>-1359</v>
+        <v>-1424</v>
       </c>
       <c r="G68" t="n">
-        <v>-2719</v>
+        <v>-4</v>
       </c>
       <c r="H68" t="n">
-        <v>-1332</v>
+        <v>259</v>
       </c>
       <c r="I68" t="n">
-        <v>-1424</v>
+        <v>259</v>
       </c>
       <c r="J68" t="n">
-        <v>-4</v>
+        <v>-1815</v>
       </c>
       <c r="K68" t="n">
-        <v>259</v>
+        <v>-1642</v>
       </c>
       <c r="L68" t="n">
-        <v>259</v>
+        <v>-8848</v>
       </c>
       <c r="M68" t="n">
-        <v>-1815</v>
+        <v>346</v>
       </c>
       <c r="N68" t="n">
-        <v>-1642</v>
+        <v>-2330</v>
       </c>
       <c r="O68" t="n">
-        <v>-8848</v>
+        <v>-1202</v>
       </c>
       <c r="P68" t="n">
-        <v>346</v>
+        <v>-2527</v>
       </c>
       <c r="Q68" t="n">
-        <v>-2330</v>
+        <v>2076</v>
       </c>
       <c r="R68" t="n">
-        <v>-1202</v>
+        <v>-1493</v>
       </c>
       <c r="S68" t="n">
-        <v>-2527</v>
+        <v>-1542</v>
       </c>
       <c r="T68" t="n">
-        <v>2076</v>
+        <v>-2618</v>
       </c>
       <c r="U68" t="n">
-        <v>-1493</v>
+        <v>-825</v>
       </c>
       <c r="V68" t="n">
-        <v>-1542</v>
+        <v>-1837</v>
       </c>
       <c r="W68" t="n">
-        <v>-2618</v>
+        <v>-1834</v>
       </c>
       <c r="X68" t="n">
-        <v>-825</v>
+        <v>-2047</v>
       </c>
       <c r="Y68" t="n">
-        <v>-1837</v>
+        <v>-2198</v>
       </c>
       <c r="Z68" t="n">
-        <v>-1834</v>
+        <v>-2190</v>
       </c>
       <c r="AA68" t="n">
-        <v>-2047</v>
+        <v>-2277</v>
       </c>
       <c r="AB68" t="n">
-        <v>-2198</v>
+        <v>-2193</v>
       </c>
       <c r="AC68" t="n">
-        <v>-2190</v>
+        <v>-2305</v>
       </c>
       <c r="AD68" t="n">
-        <v>-2277</v>
+        <v>-2604</v>
       </c>
       <c r="AE68" t="n">
-        <v>-2193</v>
+        <v>-2184</v>
       </c>
       <c r="AF68" t="n">
-        <v>-2305</v>
+        <v>-2905</v>
       </c>
       <c r="AG68" t="n">
-        <v>-2604</v>
+        <v>-2256</v>
       </c>
       <c r="AH68" t="n">
-        <v>-2184</v>
+        <v>-2245</v>
       </c>
       <c r="AI68" t="n">
-        <v>-2905</v>
+        <v>-2310</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-2256</v>
+        <v>-2180</v>
       </c>
       <c r="AK68" t="n">
+        <v>-1849</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>-1695</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>-739</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-780</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>-2643</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>-846</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>-895</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>-1742</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>-1949</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>-1092</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>-1431</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>277</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>-959</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>-886</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>-2789</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>-1768</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>-1768</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>-2088</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>-2306</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>-2246</v>
+      </c>
+      <c r="BE68" t="n">
         <v>-2245</v>
       </c>
-      <c r="AL68" t="n">
-        <v>-2310</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>-2180</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>-1849</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>-1695</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>-739</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>-780</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>-2643</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>-846</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-895</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-1742</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-1949</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>-1092</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-1431</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>277</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>-959</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>-886</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>-2789</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>-1768</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>-1768</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>-2088</v>
-      </c>
       <c r="BF68" t="n">
-        <v>-2306</v>
+        <v>-956</v>
       </c>
       <c r="BG68" t="n">
-        <v>-2246</v>
+        <v>-3043</v>
       </c>
       <c r="BH68" t="n">
-        <v>-2245</v>
+        <v>-2360</v>
       </c>
       <c r="BI68" t="n">
-        <v>-956</v>
+        <v>-2293</v>
       </c>
     </row>
     <row r="69">
@@ -13050,52 +13044,52 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>679</v>
+        <v>1757</v>
       </c>
       <c r="C69" t="n">
-        <v>-1511</v>
+        <v>419</v>
       </c>
       <c r="D69" t="n">
-        <v>1530</v>
+        <v>-889</v>
       </c>
       <c r="E69" t="n">
-        <v>1757</v>
+        <v>570</v>
       </c>
       <c r="F69" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-889</v>
+        <v>778</v>
       </c>
       <c r="H69" t="n">
-        <v>570</v>
+        <v>1326</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="J69" t="n">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1326</v>
+        <v>88</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1379</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -13104,10 +13098,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -13116,11 +13110,11 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
         <v>968</v>
       </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
@@ -13128,34 +13122,34 @@
         <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>968</v>
+        <v>344</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>1056</v>
+        <v>382</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>4339</v>
       </c>
       <c r="AL69" t="n">
         <v>0</v>
@@ -13164,10 +13158,10 @@
         <v>0</v>
       </c>
       <c r="AN69" t="n">
-        <v>4339</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>5034</v>
       </c>
       <c r="AP69" t="n">
         <v>0</v>
@@ -13176,10 +13170,10 @@
         <v>0</v>
       </c>
       <c r="AR69" t="n">
-        <v>5034</v>
+        <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="AT69" t="n">
         <v>0</v>
@@ -13188,43 +13182,43 @@
         <v>0</v>
       </c>
       <c r="AV69" t="n">
-        <v>3469</v>
+        <v>5005</v>
       </c>
       <c r="AW69" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="AX69" t="n">
         <v>0</v>
       </c>
       <c r="AY69" t="n">
-        <v>5005</v>
+        <v>3013</v>
       </c>
       <c r="AZ69" t="n">
-        <v>950</v>
+        <v>1053</v>
       </c>
       <c r="BA69" t="n">
         <v>0</v>
       </c>
       <c r="BB69" t="n">
-        <v>3013</v>
+        <v>0</v>
       </c>
       <c r="BC69" t="n">
-        <v>1053</v>
+        <v>3341</v>
       </c>
       <c r="BD69" t="n">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="BE69" t="n">
         <v>0</v>
       </c>
       <c r="BF69" t="n">
-        <v>3341</v>
+        <v>0</v>
       </c>
       <c r="BG69" t="n">
-        <v>1174</v>
+        <v>3724</v>
       </c>
       <c r="BH69" t="n">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="BI69" t="n">
         <v>0</v>
@@ -13237,112 +13231,112 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1890</v>
+        <v>-28543</v>
       </c>
       <c r="C70" t="n">
-        <v>480</v>
+        <v>-1778</v>
       </c>
       <c r="D70" t="n">
-        <v>-2304</v>
+        <v>-1830</v>
       </c>
       <c r="E70" t="n">
-        <v>-28543</v>
+        <v>-1902</v>
       </c>
       <c r="F70" t="n">
-        <v>-1778</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-1830</v>
+        <v>-782</v>
       </c>
       <c r="H70" t="n">
-        <v>-1902</v>
+        <v>-2491</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>-2491</v>
       </c>
       <c r="J70" t="n">
-        <v>-782</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>-2491</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-2491</v>
+        <v>-8936</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>-4490</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>-8936</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>-4490</v>
+        <v>-2527</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>-2262</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>-2527</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>-2262</v>
+        <v>-2618</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>-4828</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>-2618</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>-4828</v>
+        <v>-2047</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>-6837</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>-2047</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>-6837</v>
+        <v>-2537</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>-7828</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>-2537</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>-7828</v>
+        <v>-3287</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>-8062</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>-3287</v>
+        <v>0</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-8062</v>
+        <v>0</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>-12923</v>
       </c>
       <c r="AL70" t="n">
         <v>0</v>
@@ -13351,10 +13345,10 @@
         <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>-12923</v>
+        <v>0</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>-10891</v>
       </c>
       <c r="AP70" t="n">
         <v>0</v>
@@ -13363,10 +13357,10 @@
         <v>0</v>
       </c>
       <c r="AR70" t="n">
-        <v>-10891</v>
+        <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>0</v>
+        <v>-8901</v>
       </c>
       <c r="AT70" t="n">
         <v>0</v>
@@ -13375,43 +13369,43 @@
         <v>0</v>
       </c>
       <c r="AV70" t="n">
-        <v>-8901</v>
+        <v>-8635</v>
       </c>
       <c r="AW70" t="n">
-        <v>0</v>
+        <v>-1909</v>
       </c>
       <c r="AX70" t="n">
         <v>0</v>
       </c>
       <c r="AY70" t="n">
-        <v>-8635</v>
+        <v>-7577</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-1909</v>
+        <v>-2821</v>
       </c>
       <c r="BA70" t="n">
         <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>-7577</v>
+        <v>0</v>
       </c>
       <c r="BC70" t="n">
-        <v>-2821</v>
+        <v>-9503</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>-3420</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-9503</v>
+        <v>0</v>
       </c>
       <c r="BG70" t="n">
-        <v>-3420</v>
+        <v>-9968</v>
       </c>
       <c r="BH70" t="n">
-        <v>0</v>
+        <v>-3674</v>
       </c>
       <c r="BI70" t="n">
         <v>0</v>
@@ -13424,32 +13418,26 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-29</v>
+        <v>-2653</v>
       </c>
       <c r="C71" t="n">
-        <v>433</v>
+        <v>147</v>
       </c>
       <c r="D71" t="n">
-        <v>-62</v>
+        <v>105</v>
       </c>
       <c r="E71" t="n">
-        <v>-2653</v>
+        <v>1629</v>
       </c>
       <c r="F71" t="n">
-        <v>147</v>
+        <v>1567</v>
       </c>
       <c r="G71" t="n">
-        <v>105</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1629</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1567</v>
-      </c>
-      <c r="J71" t="n">
         <v>-1522</v>
       </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -13509,32 +13497,26 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C72" t="n">
-        <v>-2292</v>
+        <v>289</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E72" t="n">
-        <v>227</v>
+        <v>1633</v>
       </c>
       <c r="F72" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>53</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1633</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>1</v>
       </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -13594,32 +13576,26 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-29</v>
+        <v>-2880</v>
       </c>
       <c r="C73" t="n">
-        <v>1496</v>
+        <v>-142</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E73" t="n">
-        <v>-2880</v>
+        <v>-4</v>
       </c>
       <c r="F73" t="n">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>-1523</v>
       </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -13679,184 +13655,184 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-2327</v>
+        <v>-34974</v>
       </c>
       <c r="C74" t="n">
-        <v>-3530</v>
+        <v>-3596</v>
       </c>
       <c r="D74" t="n">
-        <v>-1822</v>
+        <v>-4159</v>
       </c>
       <c r="E74" t="n">
-        <v>-34974</v>
+        <v>-539</v>
       </c>
       <c r="F74" t="n">
-        <v>-3596</v>
+        <v>-1199</v>
       </c>
       <c r="G74" t="n">
-        <v>-4159</v>
+        <v>-2246</v>
       </c>
       <c r="H74" t="n">
-        <v>-539</v>
+        <v>-4437</v>
       </c>
       <c r="I74" t="n">
-        <v>-1199</v>
+        <v>-4437</v>
       </c>
       <c r="J74" t="n">
-        <v>-2246</v>
+        <v>-2936</v>
       </c>
       <c r="K74" t="n">
-        <v>-4437</v>
+        <v>-2680</v>
       </c>
       <c r="L74" t="n">
-        <v>-4437</v>
+        <v>-9910</v>
       </c>
       <c r="M74" t="n">
-        <v>-2936</v>
+        <v>-17</v>
       </c>
       <c r="N74" t="n">
-        <v>-2680</v>
+        <v>-2448</v>
       </c>
       <c r="O74" t="n">
-        <v>-9910</v>
+        <v>-2143</v>
       </c>
       <c r="P74" t="n">
-        <v>-17</v>
+        <v>-3555</v>
       </c>
       <c r="Q74" t="n">
-        <v>-2448</v>
+        <v>81</v>
       </c>
       <c r="R74" t="n">
-        <v>-2143</v>
+        <v>-2513</v>
       </c>
       <c r="S74" t="n">
-        <v>-3555</v>
+        <v>-2429</v>
       </c>
       <c r="T74" t="n">
-        <v>81</v>
+        <v>-3468</v>
       </c>
       <c r="U74" t="n">
-        <v>-2513</v>
+        <v>-9803</v>
       </c>
       <c r="V74" t="n">
-        <v>-2429</v>
+        <v>-2673</v>
       </c>
       <c r="W74" t="n">
-        <v>-3468</v>
+        <v>-2134</v>
       </c>
       <c r="X74" t="n">
-        <v>-9803</v>
+        <v>-2337</v>
       </c>
       <c r="Y74" t="n">
-        <v>-2673</v>
+        <v>-5713</v>
       </c>
       <c r="Z74" t="n">
-        <v>-2134</v>
+        <v>-2466</v>
       </c>
       <c r="AA74" t="n">
-        <v>-2337</v>
+        <v>-2928</v>
       </c>
       <c r="AB74" t="n">
-        <v>-5713</v>
+        <v>-2525</v>
       </c>
       <c r="AC74" t="n">
-        <v>-2466</v>
+        <v>-2668</v>
       </c>
       <c r="AD74" t="n">
-        <v>-2928</v>
+        <v>-2492</v>
       </c>
       <c r="AE74" t="n">
-        <v>-2525</v>
+        <v>-2492</v>
       </c>
       <c r="AF74" t="n">
-        <v>-2668</v>
+        <v>-2706</v>
       </c>
       <c r="AG74" t="n">
-        <v>-2492</v>
+        <v>-2500</v>
       </c>
       <c r="AH74" t="n">
-        <v>-2492</v>
+        <v>-1875</v>
       </c>
       <c r="AI74" t="n">
-        <v>-2706</v>
+        <v>-2180</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-2500</v>
+        <v>-1888</v>
       </c>
       <c r="AK74" t="n">
-        <v>-1875</v>
+        <v>-71</v>
       </c>
       <c r="AL74" t="n">
-        <v>-2180</v>
+        <v>-1245</v>
       </c>
       <c r="AM74" t="n">
-        <v>-1888</v>
+        <v>-278</v>
       </c>
       <c r="AN74" t="n">
-        <v>-71</v>
+        <v>-391</v>
       </c>
       <c r="AO74" t="n">
-        <v>-1245</v>
+        <v>-2208</v>
       </c>
       <c r="AP74" t="n">
-        <v>-278</v>
+        <v>-352</v>
       </c>
       <c r="AQ74" t="n">
-        <v>-391</v>
+        <v>-442</v>
       </c>
       <c r="AR74" t="n">
-        <v>-2208</v>
+        <v>-795</v>
       </c>
       <c r="AS74" t="n">
-        <v>-352</v>
+        <v>-1983</v>
       </c>
       <c r="AT74" t="n">
-        <v>-442</v>
+        <v>-674</v>
       </c>
       <c r="AU74" t="n">
-        <v>-795</v>
+        <v>-1162</v>
       </c>
       <c r="AV74" t="n">
-        <v>-1983</v>
+        <v>184</v>
       </c>
       <c r="AW74" t="n">
-        <v>-674</v>
+        <v>-634</v>
       </c>
       <c r="AX74" t="n">
-        <v>-1162</v>
+        <v>-750</v>
       </c>
       <c r="AY74" t="n">
-        <v>184</v>
+        <v>-2408</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-634</v>
+        <v>-1533</v>
       </c>
       <c r="BA74" t="n">
-        <v>-750</v>
+        <v>-1541</v>
       </c>
       <c r="BB74" t="n">
-        <v>-2408</v>
+        <v>-1707</v>
       </c>
       <c r="BC74" t="n">
-        <v>-1533</v>
+        <v>-1929</v>
       </c>
       <c r="BD74" t="n">
-        <v>-1541</v>
+        <v>-1846</v>
       </c>
       <c r="BE74" t="n">
-        <v>-1707</v>
+        <v>-2669</v>
       </c>
       <c r="BF74" t="n">
-        <v>-1929</v>
+        <v>-1509</v>
       </c>
       <c r="BG74" t="n">
-        <v>-1846</v>
+        <v>-3607</v>
       </c>
       <c r="BH74" t="n">
-        <v>-2669</v>
+        <v>-2823</v>
       </c>
       <c r="BI74" t="n">
-        <v>-1509</v>
+        <v>-2261</v>
       </c>
     </row>
     <row r="75">
@@ -13866,7 +13842,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -14257,15 +14233,9 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -14342,15 +14312,9 @@
       <c r="G78" t="n">
         <v>0</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -14597,184 +14561,184 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2326</v>
+        <v>-34974</v>
       </c>
       <c r="C80" t="n">
-        <v>-3530</v>
+        <v>-3596</v>
       </c>
       <c r="D80" t="n">
-        <v>-1822</v>
+        <v>-4159</v>
       </c>
       <c r="E80" t="n">
-        <v>-34974</v>
+        <v>-539</v>
       </c>
       <c r="F80" t="n">
-        <v>-3596</v>
+        <v>-1199</v>
       </c>
       <c r="G80" t="n">
-        <v>-4159</v>
+        <v>-2246</v>
       </c>
       <c r="H80" t="n">
-        <v>-539</v>
+        <v>-4437</v>
       </c>
       <c r="I80" t="n">
-        <v>-1199</v>
+        <v>-4437</v>
       </c>
       <c r="J80" t="n">
-        <v>-2246</v>
+        <v>-2936</v>
       </c>
       <c r="K80" t="n">
-        <v>-4437</v>
+        <v>-3044</v>
       </c>
       <c r="L80" t="n">
-        <v>-4437</v>
+        <v>-9910</v>
       </c>
       <c r="M80" t="n">
-        <v>-2936</v>
+        <v>347</v>
       </c>
       <c r="N80" t="n">
-        <v>-3044</v>
+        <v>-2448</v>
       </c>
       <c r="O80" t="n">
-        <v>-9910</v>
+        <v>-2143</v>
       </c>
       <c r="P80" t="n">
-        <v>347</v>
+        <v>-3555</v>
       </c>
       <c r="Q80" t="n">
-        <v>-2448</v>
+        <v>81</v>
       </c>
       <c r="R80" t="n">
-        <v>-2143</v>
+        <v>-2513</v>
       </c>
       <c r="S80" t="n">
-        <v>-3555</v>
+        <v>-2429</v>
       </c>
       <c r="T80" t="n">
-        <v>81</v>
+        <v>-3468</v>
       </c>
       <c r="U80" t="n">
-        <v>-2513</v>
+        <v>-9803</v>
       </c>
       <c r="V80" t="n">
-        <v>-2429</v>
+        <v>-2673</v>
       </c>
       <c r="W80" t="n">
-        <v>-3468</v>
+        <v>-2134</v>
       </c>
       <c r="X80" t="n">
-        <v>-9803</v>
+        <v>-2337</v>
       </c>
       <c r="Y80" t="n">
-        <v>-2673</v>
+        <v>-5713</v>
       </c>
       <c r="Z80" t="n">
-        <v>-2134</v>
+        <v>-2466</v>
       </c>
       <c r="AA80" t="n">
-        <v>-2337</v>
+        <v>-2928</v>
       </c>
       <c r="AB80" t="n">
-        <v>-5713</v>
+        <v>-2525</v>
       </c>
       <c r="AC80" t="n">
-        <v>-2466</v>
+        <v>-2668</v>
       </c>
       <c r="AD80" t="n">
-        <v>-2928</v>
+        <v>-2492</v>
       </c>
       <c r="AE80" t="n">
-        <v>-2525</v>
+        <v>-2492</v>
       </c>
       <c r="AF80" t="n">
-        <v>-2668</v>
+        <v>-2706</v>
       </c>
       <c r="AG80" t="n">
-        <v>-2492</v>
+        <v>-2500</v>
       </c>
       <c r="AH80" t="n">
-        <v>-2492</v>
+        <v>-1875</v>
       </c>
       <c r="AI80" t="n">
-        <v>-2706</v>
+        <v>-2180</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-2500</v>
+        <v>-1888</v>
       </c>
       <c r="AK80" t="n">
-        <v>-1875</v>
+        <v>-71</v>
       </c>
       <c r="AL80" t="n">
-        <v>-2180</v>
+        <v>-1245</v>
       </c>
       <c r="AM80" t="n">
-        <v>-1888</v>
+        <v>-278</v>
       </c>
       <c r="AN80" t="n">
-        <v>-71</v>
+        <v>-391</v>
       </c>
       <c r="AO80" t="n">
-        <v>-1245</v>
+        <v>26637</v>
       </c>
       <c r="AP80" t="n">
-        <v>-278</v>
+        <v>-352</v>
       </c>
       <c r="AQ80" t="n">
-        <v>-391</v>
+        <v>-442</v>
       </c>
       <c r="AR80" t="n">
-        <v>26637</v>
+        <v>-795</v>
       </c>
       <c r="AS80" t="n">
-        <v>-352</v>
+        <v>-1983</v>
       </c>
       <c r="AT80" t="n">
-        <v>-442</v>
+        <v>-674</v>
       </c>
       <c r="AU80" t="n">
-        <v>-795</v>
+        <v>-1162</v>
       </c>
       <c r="AV80" t="n">
-        <v>-1983</v>
+        <v>184</v>
       </c>
       <c r="AW80" t="n">
-        <v>-674</v>
+        <v>-634</v>
       </c>
       <c r="AX80" t="n">
-        <v>-1162</v>
+        <v>0</v>
       </c>
       <c r="AY80" t="n">
-        <v>184</v>
+        <v>6526</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-634</v>
+        <v>-1533</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>-1541</v>
       </c>
       <c r="BB80" t="n">
-        <v>6526</v>
+        <v>-1707</v>
       </c>
       <c r="BC80" t="n">
-        <v>-1533</v>
+        <v>-1929</v>
       </c>
       <c r="BD80" t="n">
-        <v>-1541</v>
+        <v>-1846</v>
       </c>
       <c r="BE80" t="n">
-        <v>-1707</v>
+        <v>-2669</v>
       </c>
       <c r="BF80" t="n">
-        <v>-1929</v>
+        <v>-1509</v>
       </c>
       <c r="BG80" t="n">
-        <v>-1846</v>
+        <v>15655</v>
       </c>
       <c r="BH80" t="n">
-        <v>-2669</v>
+        <v>-2823</v>
       </c>
       <c r="BI80" t="n">
-        <v>-1509</v>
+        <v>-2261</v>
       </c>
     </row>
   </sheetData>
